--- a/SubRES_TMPL/SubRES_B-NewTechs_RSD_Trans.xlsx
+++ b/SubRES_TMPL/SubRES_B-NewTechs_RSD_Trans.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda_models\Gällivare\Gallivare_Model_221212\SubRES_TMPL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B483CE0-F49D-4688-8E9C-AB8173EAAF36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CE1E65F-01EF-4F65-A205-FB88FC3E269B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3012" yWindow="1140" windowWidth="17280" windowHeight="10056" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1920" yWindow="1920" windowWidth="17280" windowHeight="10044" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UPD_AF" sheetId="4" r:id="rId1"/>
@@ -234,61 +234,61 @@
     <t>_~TFM_INS</t>
   </si>
   <si>
+    <t>Operation_Sum_Avg_Count</t>
+  </si>
+  <si>
+    <t>Other_Indexes</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>BASE</t>
+  </si>
+  <si>
+    <t>NCAP_AFA</t>
+  </si>
+  <si>
+    <t>NCAP_AF</t>
+  </si>
+  <si>
+    <t>ANNUAL</t>
+  </si>
+  <si>
+    <t>Scenario Name</t>
+  </si>
+  <si>
+    <t>RK*</t>
+  </si>
+  <si>
+    <t>RL*</t>
+  </si>
+  <si>
+    <t>RO*</t>
+  </si>
+  <si>
+    <t>Z01</t>
+  </si>
+  <si>
+    <t>RH*SAV*</t>
+  </si>
+  <si>
+    <t>RH*BFW*,RH*BPL*,RH*COA*,RH*GAS*,RH*LPG*,RH*OIL*,RH*WOF*,RH*WOO*</t>
+  </si>
+  <si>
+    <t>RH*HTH*</t>
+  </si>
+  <si>
+    <t>RH*SOL*</t>
+  </si>
+  <si>
+    <t>RH*AHT*</t>
+  </si>
+  <si>
     <t>~TFM_FILL</t>
   </si>
   <si>
-    <t>Operation_Sum_Avg_Count</t>
-  </si>
-  <si>
-    <t>Other_Indexes</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>BASE</t>
-  </si>
-  <si>
     <t>~TFM_UPD</t>
-  </si>
-  <si>
-    <t>NCAP_AFA</t>
-  </si>
-  <si>
-    <t>NCAP_AF</t>
-  </si>
-  <si>
-    <t>ANNUAL</t>
-  </si>
-  <si>
-    <t>Scenario Name</t>
-  </si>
-  <si>
-    <t>RK*</t>
-  </si>
-  <si>
-    <t>RL*</t>
-  </si>
-  <si>
-    <t>RO*</t>
-  </si>
-  <si>
-    <t>Z01</t>
-  </si>
-  <si>
-    <t>RH*SAV*</t>
-  </si>
-  <si>
-    <t>RH*BFW*,RH*BPL*,RH*COA*,RH*GAS*,RH*LPG*,RH*OIL*,RH*WOF*,RH*WOO*</t>
-  </si>
-  <si>
-    <t>RH*HTH*</t>
-  </si>
-  <si>
-    <t>RH*SOL*</t>
-  </si>
-  <si>
-    <t>RH*AHT*</t>
   </si>
 </sst>
 </file>
@@ -878,7 +878,7 @@
   <dimension ref="B2:K13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -891,7 +891,7 @@
   <sheetData>
     <row r="2" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B2" s="40" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="C2" s="41"/>
       <c r="D2" s="41"/>
@@ -939,7 +939,7 @@
       <c r="B4" s="41"/>
       <c r="C4" s="41"/>
       <c r="D4" s="41" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E4" s="41"/>
       <c r="F4" s="54">
@@ -959,7 +959,7 @@
       <c r="B5" s="41"/>
       <c r="C5" s="41"/>
       <c r="D5" s="41" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E5" s="41"/>
       <c r="F5" s="47">
@@ -979,7 +979,7 @@
       <c r="B6" s="41"/>
       <c r="C6" s="41"/>
       <c r="D6" s="41" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E6" s="41"/>
       <c r="F6" s="47">
@@ -999,7 +999,7 @@
       <c r="B7" s="41"/>
       <c r="C7" s="41"/>
       <c r="D7" s="41" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E7" s="41"/>
       <c r="F7" s="47">
@@ -1019,7 +1019,7 @@
       <c r="B8" s="41"/>
       <c r="C8" s="41"/>
       <c r="D8" s="41" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E8" s="41"/>
       <c r="F8" s="47">
@@ -1039,7 +1039,7 @@
       <c r="B9" s="41"/>
       <c r="C9" s="41"/>
       <c r="D9" s="41" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E9" s="41"/>
       <c r="F9" s="47">
@@ -1059,7 +1059,7 @@
       <c r="B10" s="41"/>
       <c r="C10" s="41"/>
       <c r="D10" s="41" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E10" s="41"/>
       <c r="F10" s="47">
@@ -1079,7 +1079,7 @@
       <c r="B11" s="41"/>
       <c r="C11" s="41"/>
       <c r="D11" s="41" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E11" s="41"/>
       <c r="F11" s="47">
@@ -1121,7 +1121,7 @@
   <dimension ref="B3:AL77"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1151,7 +1151,7 @@
   <sheetData>
     <row r="3" spans="2:38" x14ac:dyDescent="0.3">
       <c r="B3" s="39" t="s">
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="C3" s="29"/>
       <c r="D3" s="29"/>
@@ -1170,10 +1170,10 @@
     </row>
     <row r="4" spans="2:38" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="31" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C4" s="31" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D4" s="31" t="s">
         <v>0</v>
@@ -1188,10 +1188,10 @@
         <v>3</v>
       </c>
       <c r="H4" s="48" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I4" s="32" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J4" s="32" t="s">
         <v>6</v>
@@ -1216,17 +1216,17 @@
     </row>
     <row r="5" spans="2:38" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="C5" s="33" t="s">
-        <v>70</v>
-      </c>
       <c r="D5" s="29" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E5" s="29"/>
       <c r="F5" s="29" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G5" s="29"/>
       <c r="H5" s="36">
@@ -1234,7 +1234,7 @@
       </c>
       <c r="I5" s="37"/>
       <c r="J5" s="29" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="K5" s="29"/>
       <c r="L5" s="29"/>
@@ -1302,17 +1302,17 @@
     </row>
     <row r="6" spans="2:38" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B6" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="C6" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="C6" s="33" t="s">
-        <v>70</v>
-      </c>
       <c r="D6" s="29" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E6" s="29"/>
       <c r="F6" s="29" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G6" s="29"/>
       <c r="H6" s="36">
@@ -1320,7 +1320,7 @@
       </c>
       <c r="I6" s="37"/>
       <c r="J6" s="29" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="K6" s="29"/>
       <c r="L6" s="29"/>
@@ -1367,17 +1367,17 @@
     </row>
     <row r="7" spans="2:38" x14ac:dyDescent="0.3">
       <c r="B7" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="C7" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="C7" s="33" t="s">
-        <v>70</v>
-      </c>
       <c r="D7" s="29" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E7" s="29"/>
       <c r="F7" s="29" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G7" s="29"/>
       <c r="H7" s="36">
@@ -1385,7 +1385,7 @@
       </c>
       <c r="I7" s="37"/>
       <c r="J7" s="29" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="K7" s="29"/>
       <c r="L7" s="29"/>
@@ -1432,17 +1432,17 @@
     </row>
     <row r="8" spans="2:38" x14ac:dyDescent="0.3">
       <c r="B8" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="C8" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="C8" s="33" t="s">
-        <v>70</v>
-      </c>
       <c r="D8" s="29" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E8" s="29"/>
       <c r="F8" s="29" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G8" s="29"/>
       <c r="H8" s="36">
@@ -1450,7 +1450,7 @@
       </c>
       <c r="I8" s="37"/>
       <c r="J8" s="29" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="K8" s="29"/>
       <c r="L8" s="29"/>
@@ -1497,23 +1497,23 @@
     </row>
     <row r="9" spans="2:38" x14ac:dyDescent="0.3">
       <c r="B9" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="C9" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="C9" s="33" t="s">
-        <v>70</v>
-      </c>
       <c r="D9" s="29" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E9" s="29"/>
       <c r="F9" s="29" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G9" s="29"/>
       <c r="H9" s="36"/>
       <c r="I9" s="38"/>
       <c r="J9" s="29" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="K9" s="29"/>
       <c r="L9" s="34"/>
@@ -1556,17 +1556,17 @@
     </row>
     <row r="10" spans="2:38" x14ac:dyDescent="0.3">
       <c r="B10" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="C10" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="C10" s="33" t="s">
-        <v>70</v>
-      </c>
       <c r="D10" s="29" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E10" s="29"/>
       <c r="F10" s="29" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G10" s="29"/>
       <c r="H10" s="36">
@@ -1574,7 +1574,7 @@
       </c>
       <c r="I10" s="38"/>
       <c r="J10" s="29" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="K10" s="29"/>
       <c r="L10" s="34"/>
@@ -1619,17 +1619,17 @@
     </row>
     <row r="11" spans="2:38" x14ac:dyDescent="0.3">
       <c r="B11" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="C11" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="C11" s="33" t="s">
-        <v>70</v>
-      </c>
       <c r="D11" s="29" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E11" s="29"/>
       <c r="F11" s="29" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G11" s="29"/>
       <c r="H11" s="36">
@@ -1637,7 +1637,7 @@
       </c>
       <c r="I11" s="38"/>
       <c r="J11" s="29" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K11" s="29"/>
       <c r="L11" s="34"/>
@@ -1682,17 +1682,17 @@
     </row>
     <row r="12" spans="2:38" x14ac:dyDescent="0.3">
       <c r="B12" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="C12" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="C12" s="33" t="s">
-        <v>70</v>
-      </c>
       <c r="D12" s="29" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E12" s="29"/>
       <c r="F12" s="29" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G12" s="29"/>
       <c r="H12" s="36">
@@ -1700,7 +1700,7 @@
       </c>
       <c r="I12" s="38"/>
       <c r="J12" s="29" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="L12" s="34"/>
       <c r="M12" s="29"/>

--- a/SubRES_TMPL/SubRES_B-NewTechs_RSD_Trans.xlsx
+++ b/SubRES_TMPL/SubRES_B-NewTechs_RSD_Trans.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda_models\Gällivare\Gallivare_Model_221212\SubRES_TMPL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda_models\Gällivare\Gallivare_Model_230318\SubRES_TMPL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CE1E65F-01EF-4F65-A205-FB88FC3E269B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A29070D-7116-44D7-AECE-E91BFF5371D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="1920" windowWidth="17280" windowHeight="10044" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30615" yWindow="1440" windowWidth="24780" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UPD_AF" sheetId="4" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="86">
   <si>
     <t>TimeSlice</t>
   </si>
@@ -289,6 +289,9 @@
   </si>
   <si>
     <t>~TFM_UPD</t>
+  </si>
+  <si>
+    <t>RH*HP*</t>
   </si>
 </sst>
 </file>
@@ -482,7 +485,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -526,14 +529,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -541,9 +536,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1"/>
@@ -555,36 +547,30 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="3" xfId="2" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" quotePrefix="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="3" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" quotePrefix="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" quotePrefix="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
@@ -878,7 +864,7 @@
   <dimension ref="B2:K13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -886,230 +872,229 @@
     <col min="2" max="2" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.5546875" customWidth="1"/>
     <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.109375" style="49" customWidth="1"/>
+    <col min="7" max="7" width="16.109375" style="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="35" t="s">
         <v>84</v>
       </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="47"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="41"/>
-      <c r="J2" s="41"/>
-      <c r="K2" s="41"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="36"/>
     </row>
     <row r="3" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="42" t="s">
+      <c r="B3" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="42" t="s">
+      <c r="C3" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="42" t="s">
+      <c r="D3" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="42" t="s">
+      <c r="E3" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="42" t="s">
+      <c r="F3" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="51" t="s">
+      <c r="G3" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="43" t="s">
+      <c r="H3" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="43" t="s">
+      <c r="I3" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="43" t="s">
+      <c r="J3" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="K3" s="43" t="s">
+      <c r="K3" s="38" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B4" s="41"/>
-      <c r="C4" s="41"/>
-      <c r="D4" s="41" t="s">
+      <c r="B4" s="36"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36" t="s">
         <v>70</v>
       </c>
-      <c r="E4" s="41"/>
-      <c r="F4" s="54">
+      <c r="E4" s="36"/>
+      <c r="F4" s="45">
         <f>IF(OR(FILL_AF!H5="",FILL_AF!H5=0), 0.05,FILL_AF!H5)</f>
         <v>0.19900000000000001</v>
       </c>
-      <c r="G4" s="52" t="str">
+      <c r="G4" s="43" t="str">
         <f>FILL_AF!J5</f>
         <v>RH*BFW*,RH*BPL*,RH*COA*,RH*GAS*,RH*LPG*,RH*OIL*,RH*WOF*,RH*WOO*</v>
       </c>
-      <c r="H4" s="41"/>
-      <c r="I4" s="44"/>
-      <c r="J4" s="41"/>
-      <c r="K4" s="41"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="39"/>
+      <c r="J4" s="36"/>
+      <c r="K4" s="36"/>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B5" s="41"/>
-      <c r="C5" s="41"/>
-      <c r="D5" s="41" t="s">
+      <c r="B5" s="36"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="36" t="s">
         <v>70</v>
       </c>
-      <c r="E5" s="41"/>
-      <c r="F5" s="47">
+      <c r="E5" s="36"/>
+      <c r="F5" s="40">
         <f>IF(OR(FILL_AF!H6="",FILL_AF!H6=0), 0.05,FILL_AF!H6)</f>
         <v>4.9999999999999899E-2</v>
       </c>
-      <c r="G5" s="52" t="str">
+      <c r="G5" s="43" t="str">
         <f>FILL_AF!J6</f>
         <v>RK*</v>
       </c>
-      <c r="H5" s="41"/>
-      <c r="I5" s="44"/>
-      <c r="J5" s="41"/>
-      <c r="K5" s="41"/>
+      <c r="H5" s="36"/>
+      <c r="I5" s="39"/>
+      <c r="J5" s="36"/>
+      <c r="K5" s="36"/>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B6" s="41"/>
-      <c r="C6" s="41"/>
-      <c r="D6" s="41" t="s">
+      <c r="B6" s="36"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="36" t="s">
         <v>70</v>
       </c>
-      <c r="E6" s="41"/>
-      <c r="F6" s="47">
+      <c r="E6" s="36"/>
+      <c r="F6" s="40">
         <f>IF(OR(FILL_AF!H7="",FILL_AF!H7=0), 0.05,FILL_AF!H7)</f>
         <v>0.60000000000000098</v>
       </c>
-      <c r="G6" s="52" t="str">
+      <c r="G6" s="43" t="str">
         <f>FILL_AF!J7</f>
         <v>RL*</v>
       </c>
-      <c r="H6" s="41"/>
-      <c r="I6" s="44"/>
-      <c r="J6" s="44"/>
-      <c r="K6" s="41"/>
+      <c r="H6" s="36"/>
+      <c r="I6" s="39"/>
+      <c r="J6" s="39"/>
+      <c r="K6" s="36"/>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B7" s="41"/>
-      <c r="C7" s="41"/>
-      <c r="D7" s="41" t="s">
+      <c r="B7" s="36"/>
+      <c r="C7" s="36"/>
+      <c r="D7" s="36" t="s">
         <v>70</v>
       </c>
-      <c r="E7" s="41"/>
-      <c r="F7" s="47">
+      <c r="E7" s="36"/>
+      <c r="F7" s="40">
         <f>IF(OR(FILL_AF!H8="",FILL_AF!H8=0), 0.05,FILL_AF!H8)</f>
         <v>1</v>
       </c>
-      <c r="G7" s="53" t="str">
+      <c r="G7" s="44" t="str">
         <f>FILL_AF!J8</f>
         <v>RO*</v>
       </c>
-      <c r="H7" s="41"/>
-      <c r="I7" s="44"/>
-      <c r="J7" s="41"/>
-      <c r="K7" s="41"/>
+      <c r="H7" s="36"/>
+      <c r="I7" s="39"/>
+      <c r="J7" s="36"/>
+      <c r="K7" s="36"/>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B8" s="41"/>
-      <c r="C8" s="41"/>
-      <c r="D8" s="41" t="s">
+      <c r="B8" s="36"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="36" t="s">
         <v>70</v>
       </c>
-      <c r="E8" s="41"/>
-      <c r="F8" s="47">
+      <c r="E8" s="36"/>
+      <c r="F8" s="40">
         <f>IF(OR(FILL_AF!H9="",FILL_AF!H9=0), 0.05,FILL_AF!H9)</f>
         <v>0.05</v>
       </c>
-      <c r="G8" s="53" t="str">
+      <c r="G8" s="44" t="str">
         <f>FILL_AF!J9</f>
         <v>RH*SAV*</v>
       </c>
-      <c r="H8" s="41"/>
-      <c r="I8" s="44"/>
-      <c r="J8" s="41"/>
-      <c r="K8" s="41"/>
+      <c r="H8" s="36"/>
+      <c r="I8" s="39"/>
+      <c r="J8" s="36"/>
+      <c r="K8" s="36"/>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B9" s="41"/>
-      <c r="C9" s="41"/>
-      <c r="D9" s="41" t="s">
+      <c r="B9" s="36"/>
+      <c r="C9" s="36"/>
+      <c r="D9" s="36" t="s">
         <v>70</v>
       </c>
-      <c r="E9" s="41"/>
-      <c r="F9" s="47">
+      <c r="E9" s="36"/>
+      <c r="F9" s="40">
         <f>IF(OR(FILL_AF!H10="",FILL_AF!H10=0), 0.05,FILL_AF!H10)</f>
         <v>0.17499999999999999</v>
       </c>
-      <c r="G9" s="53" t="str">
+      <c r="G9" s="44" t="str">
         <f>FILL_AF!J10</f>
         <v>RH*HTH*</v>
       </c>
-      <c r="H9" s="41"/>
-      <c r="I9" s="44"/>
-      <c r="J9" s="41"/>
-      <c r="K9" s="41"/>
+      <c r="H9" s="36"/>
+      <c r="I9" s="39"/>
+      <c r="J9" s="36"/>
+      <c r="K9" s="36"/>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B10" s="41"/>
-      <c r="C10" s="41"/>
-      <c r="D10" s="41" t="s">
+      <c r="B10" s="36"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="36" t="s">
         <v>70</v>
       </c>
-      <c r="E10" s="41"/>
-      <c r="F10" s="47">
+      <c r="E10" s="36"/>
+      <c r="F10" s="40">
         <f>IF(OR(FILL_AF!H11="",FILL_AF!H11=0), 0.05,FILL_AF!H11)</f>
         <v>0.22500000000000001</v>
       </c>
-      <c r="G10" s="53" t="str">
+      <c r="G10" s="44" t="str">
         <f>FILL_AF!J11</f>
         <v>RH*SOL*</v>
       </c>
-      <c r="H10" s="41"/>
-      <c r="I10" s="44"/>
-      <c r="J10" s="41"/>
-      <c r="K10" s="41"/>
-    </row>
-    <row r="11" spans="2:11" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="41"/>
-      <c r="C11" s="41"/>
-      <c r="D11" s="41" t="s">
+      <c r="H10" s="36"/>
+      <c r="I10" s="39"/>
+      <c r="J10" s="36"/>
+      <c r="K10" s="36"/>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B11" s="36"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="36" t="s">
         <v>70</v>
       </c>
-      <c r="E11" s="41"/>
-      <c r="F11" s="47">
+      <c r="E11" s="36"/>
+      <c r="F11" s="40">
         <f>IF(OR(FILL_AF!H12="",FILL_AF!H12=0), 0.05,FILL_AF!H12)</f>
         <v>0.17499999999999999</v>
       </c>
-      <c r="G11" s="53" t="str">
-        <f>FILL_AF!J12</f>
-        <v>RH*AHT*</v>
-      </c>
-      <c r="H11" s="45"/>
-      <c r="I11" s="46"/>
-      <c r="J11" s="45"/>
-      <c r="K11" s="45"/>
+      <c r="G11" s="44" t="s">
+        <v>85</v>
+      </c>
+      <c r="H11" s="36"/>
+      <c r="I11" s="39"/>
+      <c r="J11" s="36"/>
+      <c r="K11" s="36"/>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B12" s="41"/>
-      <c r="C12" s="41"/>
-      <c r="D12" s="41"/>
-      <c r="E12" s="41"/>
-      <c r="F12" s="47"/>
-      <c r="G12" s="53"/>
+      <c r="B12" s="36"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="40"/>
+      <c r="G12" s="44"/>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B13" s="41"/>
-      <c r="C13" s="41"/>
-      <c r="D13" s="41"/>
-      <c r="E13" s="41"/>
-      <c r="F13" s="47"/>
-      <c r="G13" s="53"/>
+      <c r="B13" s="36"/>
+      <c r="C13" s="36"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="40"/>
+      <c r="G13" s="44"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1131,14 +1116,14 @@
     <col min="4" max="4" width="9.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.44140625" customWidth="1"/>
     <col min="7" max="7" width="5.6640625" customWidth="1"/>
-    <col min="8" max="8" width="8.109375" style="22" customWidth="1"/>
+    <col min="8" max="8" width="8.109375" style="6" customWidth="1"/>
     <col min="9" max="9" width="15.109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.5546875" customWidth="1"/>
     <col min="17" max="17" width="10.6640625" customWidth="1"/>
     <col min="18" max="18" width="8.21875" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="9.5546875" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="8.88671875" style="4"/>
-    <col min="21" max="21" width="11.33203125" style="22" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.33203125" style="6" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="11.6640625" customWidth="1"/>
     <col min="29" max="29" width="8.5546875" customWidth="1"/>
     <col min="31" max="31" width="18.44140625" customWidth="1"/>
@@ -1150,98 +1135,98 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:38" x14ac:dyDescent="0.3">
-      <c r="B3" s="39" t="s">
+      <c r="B3" s="34" t="s">
         <v>83</v>
       </c>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="35"/>
-      <c r="I3" s="29"/>
-      <c r="J3" s="29"/>
-      <c r="K3" s="29"/>
-      <c r="L3" s="29"/>
-      <c r="M3" s="29"/>
-      <c r="N3" s="29"/>
-      <c r="O3" s="29"/>
-      <c r="P3" s="30"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="24"/>
+      <c r="L3" s="24"/>
+      <c r="M3" s="24"/>
+      <c r="N3" s="24"/>
+      <c r="O3" s="24"/>
+      <c r="P3" s="25"/>
     </row>
     <row r="4" spans="2:38" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="31" t="s">
+      <c r="B4" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="C4" s="31" t="s">
+      <c r="C4" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="D4" s="31" t="s">
+      <c r="D4" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="E4" s="31" t="s">
+      <c r="E4" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="F4" s="31" t="s">
+      <c r="F4" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="31" t="s">
+      <c r="G4" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="H4" s="48" t="s">
+      <c r="H4" s="41" t="s">
         <v>77</v>
       </c>
-      <c r="I4" s="32" t="s">
+      <c r="I4" s="27" t="s">
         <v>67</v>
       </c>
-      <c r="J4" s="32" t="s">
+      <c r="J4" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="32" t="s">
+      <c r="K4" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="L4" s="32" t="s">
+      <c r="L4" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="M4" s="32" t="s">
+      <c r="M4" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="N4" s="32" t="s">
+      <c r="N4" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="O4" s="50"/>
-      <c r="P4" s="30"/>
+      <c r="O4" s="24"/>
+      <c r="P4" s="25"/>
       <c r="Q4" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="5" spans="2:38" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="29" t="s">
+      <c r="B5" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="C5" s="33" t="s">
+      <c r="C5" s="28" t="s">
         <v>69</v>
       </c>
-      <c r="D5" s="29" t="s">
+      <c r="D5" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="E5" s="29"/>
-      <c r="F5" s="29" t="s">
+      <c r="E5" s="24"/>
+      <c r="F5" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="G5" s="29"/>
-      <c r="H5" s="36">
+      <c r="G5" s="24"/>
+      <c r="H5" s="31">
         <v>0.19900000000000001</v>
       </c>
-      <c r="I5" s="37"/>
-      <c r="J5" s="29" t="s">
+      <c r="I5" s="32"/>
+      <c r="J5" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="K5" s="29"/>
-      <c r="L5" s="29"/>
-      <c r="M5" s="29"/>
-      <c r="N5" s="29"/>
-      <c r="O5" s="29"/>
-      <c r="P5" s="30"/>
+      <c r="K5" s="24"/>
+      <c r="L5" s="24"/>
+      <c r="M5" s="24"/>
+      <c r="N5" s="24"/>
+      <c r="O5" s="24"/>
+      <c r="P5" s="25"/>
       <c r="Q5" s="1" t="s">
         <v>0</v>
       </c>
@@ -1254,7 +1239,7 @@
       <c r="T5" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="U5" s="25" t="s">
+      <c r="U5" s="21" t="s">
         <v>4</v>
       </c>
       <c r="V5" s="1" t="s">
@@ -1301,33 +1286,33 @@
       </c>
     </row>
     <row r="6" spans="2:38" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="29" t="s">
+      <c r="B6" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="C6" s="33" t="s">
+      <c r="C6" s="28" t="s">
         <v>69</v>
       </c>
-      <c r="D6" s="29" t="s">
+      <c r="D6" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29" t="s">
+      <c r="E6" s="24"/>
+      <c r="F6" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="G6" s="29"/>
-      <c r="H6" s="36">
+      <c r="G6" s="24"/>
+      <c r="H6" s="31">
         <v>4.9999999999999899E-2</v>
       </c>
-      <c r="I6" s="37"/>
-      <c r="J6" s="29" t="s">
+      <c r="I6" s="32"/>
+      <c r="J6" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="K6" s="29"/>
-      <c r="L6" s="29"/>
-      <c r="M6" s="29"/>
-      <c r="N6" s="29"/>
-      <c r="O6" s="29"/>
-      <c r="P6" s="30"/>
+      <c r="K6" s="24"/>
+      <c r="L6" s="24"/>
+      <c r="M6" s="24"/>
+      <c r="N6" s="24"/>
+      <c r="O6" s="24"/>
+      <c r="P6" s="25"/>
       <c r="Q6" s="16" t="s">
         <v>14</v>
       </c>
@@ -1338,7 +1323,7 @@
       <c r="T6" s="18">
         <v>2019</v>
       </c>
-      <c r="U6" s="26">
+      <c r="U6" s="22">
         <f>ROUND($AG$22*VLOOKUP(LEFT(Q6,2),$AI$5:$AK$8,3,FALSE)*VLOOKUP(RIGHT(Q6,1),$AI$10:$AJ$12,2,FALSE)/8760,4)</f>
         <v>1.8700000000000001E-2</v>
       </c>
@@ -1366,33 +1351,33 @@
       </c>
     </row>
     <row r="7" spans="2:38" x14ac:dyDescent="0.3">
-      <c r="B7" s="29" t="s">
+      <c r="B7" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="C7" s="33" t="s">
+      <c r="C7" s="28" t="s">
         <v>69</v>
       </c>
-      <c r="D7" s="29" t="s">
+      <c r="D7" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29" t="s">
+      <c r="E7" s="24"/>
+      <c r="F7" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="G7" s="29"/>
-      <c r="H7" s="36">
+      <c r="G7" s="24"/>
+      <c r="H7" s="31">
         <v>0.60000000000000098</v>
       </c>
-      <c r="I7" s="37"/>
-      <c r="J7" s="29" t="s">
+      <c r="I7" s="32"/>
+      <c r="J7" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="K7" s="29"/>
-      <c r="L7" s="29"/>
-      <c r="M7" s="29"/>
-      <c r="N7" s="29"/>
-      <c r="O7" s="29"/>
-      <c r="P7" s="30"/>
+      <c r="K7" s="24"/>
+      <c r="L7" s="24"/>
+      <c r="M7" s="24"/>
+      <c r="N7" s="24"/>
+      <c r="O7" s="24"/>
+      <c r="P7" s="25"/>
       <c r="Q7" s="16" t="s">
         <v>15</v>
       </c>
@@ -1403,7 +1388,7 @@
       <c r="T7" s="18">
         <v>2019</v>
       </c>
-      <c r="U7" s="26">
+      <c r="U7" s="22">
         <f t="shared" ref="U7:U17" si="0">ROUND($AG$22*VLOOKUP(LEFT(Q7,2),$AI$5:$AK$8,3,FALSE)*VLOOKUP(RIGHT(Q7,1),$AI$10:$AJ$12,2,FALSE)/8760,4)</f>
         <v>1.7100000000000001E-2</v>
       </c>
@@ -1431,33 +1416,33 @@
       </c>
     </row>
     <row r="8" spans="2:38" x14ac:dyDescent="0.3">
-      <c r="B8" s="29" t="s">
+      <c r="B8" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="C8" s="33" t="s">
+      <c r="C8" s="28" t="s">
         <v>69</v>
       </c>
-      <c r="D8" s="29" t="s">
+      <c r="D8" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="E8" s="29"/>
-      <c r="F8" s="29" t="s">
+      <c r="E8" s="24"/>
+      <c r="F8" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="G8" s="29"/>
-      <c r="H8" s="36">
+      <c r="G8" s="24"/>
+      <c r="H8" s="31">
         <v>1</v>
       </c>
-      <c r="I8" s="37"/>
-      <c r="J8" s="29" t="s">
+      <c r="I8" s="32"/>
+      <c r="J8" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="K8" s="29"/>
-      <c r="L8" s="29"/>
-      <c r="M8" s="29"/>
-      <c r="N8" s="29"/>
-      <c r="O8" s="29"/>
-      <c r="P8" s="30"/>
+      <c r="K8" s="24"/>
+      <c r="L8" s="24"/>
+      <c r="M8" s="24"/>
+      <c r="N8" s="24"/>
+      <c r="O8" s="24"/>
+      <c r="P8" s="25"/>
       <c r="Q8" s="16" t="s">
         <v>16</v>
       </c>
@@ -1468,7 +1453,7 @@
       <c r="T8" s="18">
         <v>2019</v>
       </c>
-      <c r="U8" s="26">
+      <c r="U8" s="22">
         <f t="shared" si="0"/>
         <v>1.6000000000000001E-3</v>
       </c>
@@ -1496,31 +1481,31 @@
       </c>
     </row>
     <row r="9" spans="2:38" x14ac:dyDescent="0.3">
-      <c r="B9" s="29" t="s">
+      <c r="B9" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="C9" s="33" t="s">
+      <c r="C9" s="28" t="s">
         <v>69</v>
       </c>
-      <c r="D9" s="29" t="s">
+      <c r="D9" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="E9" s="29"/>
-      <c r="F9" s="29" t="s">
+      <c r="E9" s="24"/>
+      <c r="F9" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="G9" s="29"/>
-      <c r="H9" s="36"/>
-      <c r="I9" s="38"/>
-      <c r="J9" s="29" t="s">
+      <c r="G9" s="24"/>
+      <c r="H9" s="31"/>
+      <c r="I9" s="33"/>
+      <c r="J9" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="K9" s="29"/>
-      <c r="L9" s="34"/>
-      <c r="M9" s="29"/>
-      <c r="N9" s="29"/>
-      <c r="O9" s="29"/>
-      <c r="P9" s="30"/>
+      <c r="K9" s="24"/>
+      <c r="L9" s="29"/>
+      <c r="M9" s="24"/>
+      <c r="N9" s="24"/>
+      <c r="O9" s="24"/>
+      <c r="P9" s="25"/>
       <c r="Q9" s="16" t="s">
         <v>17</v>
       </c>
@@ -1531,7 +1516,7 @@
       <c r="T9" s="18">
         <v>2019</v>
       </c>
-      <c r="U9" s="26">
+      <c r="U9" s="22">
         <f t="shared" si="0"/>
         <v>1.5800000000000002E-2</v>
       </c>
@@ -1555,33 +1540,33 @@
       </c>
     </row>
     <row r="10" spans="2:38" x14ac:dyDescent="0.3">
-      <c r="B10" s="29" t="s">
+      <c r="B10" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="C10" s="33" t="s">
+      <c r="C10" s="28" t="s">
         <v>69</v>
       </c>
-      <c r="D10" s="29" t="s">
+      <c r="D10" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="E10" s="29"/>
-      <c r="F10" s="29" t="s">
+      <c r="E10" s="24"/>
+      <c r="F10" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="G10" s="29"/>
-      <c r="H10" s="36">
+      <c r="G10" s="24"/>
+      <c r="H10" s="31">
         <v>0.17499999999999999</v>
       </c>
-      <c r="I10" s="38"/>
-      <c r="J10" s="29" t="s">
+      <c r="I10" s="33"/>
+      <c r="J10" s="24" t="s">
         <v>80</v>
       </c>
-      <c r="K10" s="29"/>
-      <c r="L10" s="34"/>
-      <c r="M10" s="29"/>
-      <c r="N10" s="29"/>
-      <c r="O10" s="29"/>
-      <c r="P10" s="30"/>
+      <c r="K10" s="24"/>
+      <c r="L10" s="29"/>
+      <c r="M10" s="24"/>
+      <c r="N10" s="24"/>
+      <c r="O10" s="24"/>
+      <c r="P10" s="25"/>
       <c r="Q10" s="16" t="s">
         <v>18</v>
       </c>
@@ -1592,7 +1577,7 @@
       <c r="T10" s="18">
         <v>2019</v>
       </c>
-      <c r="U10" s="26">
+      <c r="U10" s="22">
         <f t="shared" si="0"/>
         <v>1.4500000000000001E-2</v>
       </c>
@@ -1618,33 +1603,33 @@
       <c r="AL10" s="2"/>
     </row>
     <row r="11" spans="2:38" x14ac:dyDescent="0.3">
-      <c r="B11" s="29" t="s">
+      <c r="B11" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="C11" s="33" t="s">
+      <c r="C11" s="28" t="s">
         <v>69</v>
       </c>
-      <c r="D11" s="29" t="s">
+      <c r="D11" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="E11" s="29"/>
-      <c r="F11" s="29" t="s">
+      <c r="E11" s="24"/>
+      <c r="F11" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="G11" s="29"/>
-      <c r="H11" s="36">
+      <c r="G11" s="24"/>
+      <c r="H11" s="31">
         <v>0.22500000000000001</v>
       </c>
-      <c r="I11" s="38"/>
-      <c r="J11" s="29" t="s">
+      <c r="I11" s="33"/>
+      <c r="J11" s="24" t="s">
         <v>81</v>
       </c>
-      <c r="K11" s="29"/>
-      <c r="L11" s="34"/>
-      <c r="M11" s="29"/>
-      <c r="N11" s="29"/>
-      <c r="O11" s="29"/>
-      <c r="P11" s="30"/>
+      <c r="K11" s="24"/>
+      <c r="L11" s="29"/>
+      <c r="M11" s="24"/>
+      <c r="N11" s="24"/>
+      <c r="O11" s="24"/>
+      <c r="P11" s="25"/>
       <c r="Q11" s="16" t="s">
         <v>19</v>
       </c>
@@ -1655,7 +1640,7 @@
       <c r="T11" s="18">
         <v>2019</v>
       </c>
-      <c r="U11" s="26">
+      <c r="U11" s="22">
         <f t="shared" si="0"/>
         <v>1.2999999999999999E-3</v>
       </c>
@@ -1681,32 +1666,32 @@
       <c r="AL11" s="2"/>
     </row>
     <row r="12" spans="2:38" x14ac:dyDescent="0.3">
-      <c r="B12" s="29" t="s">
+      <c r="B12" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="C12" s="33" t="s">
+      <c r="C12" s="28" t="s">
         <v>69</v>
       </c>
-      <c r="D12" s="29" t="s">
+      <c r="D12" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="E12" s="29"/>
-      <c r="F12" s="29" t="s">
+      <c r="E12" s="24"/>
+      <c r="F12" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="G12" s="29"/>
-      <c r="H12" s="36">
+      <c r="G12" s="24"/>
+      <c r="H12" s="31">
         <v>0.17499999999999999</v>
       </c>
-      <c r="I12" s="38"/>
-      <c r="J12" s="29" t="s">
+      <c r="I12" s="33"/>
+      <c r="J12" s="24" t="s">
         <v>82</v>
       </c>
-      <c r="L12" s="34"/>
-      <c r="M12" s="29"/>
-      <c r="N12" s="29"/>
-      <c r="O12" s="29"/>
-      <c r="P12" s="30"/>
+      <c r="L12" s="29"/>
+      <c r="M12" s="24"/>
+      <c r="N12" s="24"/>
+      <c r="O12" s="24"/>
+      <c r="P12" s="25"/>
       <c r="Q12" s="16" t="s">
         <v>20</v>
       </c>
@@ -1717,7 +1702,7 @@
       <c r="T12" s="18">
         <v>2019</v>
       </c>
-      <c r="U12" s="26">
+      <c r="U12" s="22">
         <f t="shared" si="0"/>
         <v>2.47E-2</v>
       </c>
@@ -1743,10 +1728,10 @@
       <c r="AL12" s="2"/>
     </row>
     <row r="13" spans="2:38" x14ac:dyDescent="0.3">
-      <c r="M13" s="29"/>
-      <c r="N13" s="29"/>
-      <c r="O13" s="29"/>
-      <c r="P13" s="30"/>
+      <c r="M13" s="24"/>
+      <c r="N13" s="24"/>
+      <c r="O13" s="24"/>
+      <c r="P13" s="25"/>
       <c r="Q13" s="16" t="s">
         <v>21</v>
       </c>
@@ -1757,7 +1742,7 @@
       <c r="T13" s="18">
         <v>2019</v>
       </c>
-      <c r="U13" s="26">
+      <c r="U13" s="22">
         <f t="shared" si="0"/>
         <v>2.2599999999999999E-2</v>
       </c>
@@ -1781,10 +1766,10 @@
       <c r="AL13" s="2"/>
     </row>
     <row r="14" spans="2:38" x14ac:dyDescent="0.3">
-      <c r="M14" s="29"/>
-      <c r="N14" s="29"/>
-      <c r="O14" s="29"/>
-      <c r="P14" s="30"/>
+      <c r="M14" s="24"/>
+      <c r="N14" s="24"/>
+      <c r="O14" s="24"/>
+      <c r="P14" s="25"/>
       <c r="Q14" s="16" t="s">
         <v>22</v>
       </c>
@@ -1795,7 +1780,7 @@
       <c r="T14" s="18">
         <v>2019</v>
       </c>
-      <c r="U14" s="26">
+      <c r="U14" s="22">
         <f t="shared" si="0"/>
         <v>2.0999999999999999E-3</v>
       </c>
@@ -1811,10 +1796,10 @@
       </c>
     </row>
     <row r="15" spans="2:38" x14ac:dyDescent="0.3">
-      <c r="M15" s="29"/>
-      <c r="N15" s="29"/>
-      <c r="O15" s="29"/>
-      <c r="P15" s="30"/>
+      <c r="M15" s="24"/>
+      <c r="N15" s="24"/>
+      <c r="O15" s="24"/>
+      <c r="P15" s="25"/>
       <c r="Q15" s="16" t="s">
         <v>23</v>
       </c>
@@ -1825,7 +1810,7 @@
       <c r="T15" s="18">
         <v>2019</v>
       </c>
-      <c r="U15" s="26">
+      <c r="U15" s="22">
         <f t="shared" si="0"/>
         <v>1.5800000000000002E-2</v>
       </c>
@@ -1841,10 +1826,10 @@
       </c>
     </row>
     <row r="16" spans="2:38" x14ac:dyDescent="0.3">
-      <c r="M16" s="29"/>
-      <c r="N16" s="29"/>
-      <c r="O16" s="29"/>
-      <c r="P16" s="30"/>
+      <c r="M16" s="24"/>
+      <c r="N16" s="24"/>
+      <c r="O16" s="24"/>
+      <c r="P16" s="25"/>
       <c r="Q16" s="16" t="s">
         <v>24</v>
       </c>
@@ -1855,7 +1840,7 @@
       <c r="T16" s="18">
         <v>2019</v>
       </c>
-      <c r="U16" s="26">
+      <c r="U16" s="22">
         <f t="shared" si="0"/>
         <v>1.4500000000000001E-2</v>
       </c>
@@ -1871,10 +1856,10 @@
       </c>
     </row>
     <row r="17" spans="13:36" x14ac:dyDescent="0.3">
-      <c r="M17" s="29"/>
-      <c r="N17" s="29"/>
-      <c r="O17" s="29"/>
-      <c r="P17" s="30"/>
+      <c r="M17" s="24"/>
+      <c r="N17" s="24"/>
+      <c r="O17" s="24"/>
+      <c r="P17" s="25"/>
       <c r="Q17" s="16" t="s">
         <v>25</v>
       </c>
@@ -1885,7 +1870,7 @@
       <c r="T17" s="18">
         <v>2019</v>
       </c>
-      <c r="U17" s="26">
+      <c r="U17" s="22">
         <f t="shared" si="0"/>
         <v>1.2999999999999999E-3</v>
       </c>
@@ -1895,10 +1880,10 @@
       </c>
     </row>
     <row r="18" spans="13:36" x14ac:dyDescent="0.3">
-      <c r="M18" s="29"/>
-      <c r="N18" s="29"/>
-      <c r="O18" s="29"/>
-      <c r="P18" s="30"/>
+      <c r="M18" s="24"/>
+      <c r="N18" s="24"/>
+      <c r="O18" s="24"/>
+      <c r="P18" s="25"/>
       <c r="Q18" s="19" t="s">
         <v>14</v>
       </c>
@@ -1909,7 +1894,7 @@
       <c r="T18" s="8">
         <v>2019</v>
       </c>
-      <c r="U18" s="27">
+      <c r="U18" s="23">
         <f>ROUND($AG$28*VLOOKUP(LEFT(Q18,2),$AI$5:$AK$8,3,FALSE)*VLOOKUP(RIGHT(Q18,1),$AI$10:$AJ$12,2,FALSE)/8760,4)</f>
         <v>1.8700000000000001E-2</v>
       </c>
@@ -1919,10 +1904,10 @@
       </c>
     </row>
     <row r="19" spans="13:36" x14ac:dyDescent="0.3">
-      <c r="M19" s="29"/>
-      <c r="N19" s="29"/>
-      <c r="O19" s="29"/>
-      <c r="P19" s="30"/>
+      <c r="M19" s="24"/>
+      <c r="N19" s="24"/>
+      <c r="O19" s="24"/>
+      <c r="P19" s="25"/>
       <c r="Q19" s="19" t="s">
         <v>15</v>
       </c>
@@ -1933,7 +1918,7 @@
       <c r="T19" s="8">
         <v>2019</v>
       </c>
-      <c r="U19" s="27">
+      <c r="U19" s="23">
         <f t="shared" ref="U19:U29" si="1">ROUND($AG$28*VLOOKUP(LEFT(Q19,2),$AI$5:$AK$8,3,FALSE)*VLOOKUP(RIGHT(Q19,1),$AI$10:$AJ$12,2,FALSE)/8760,4)</f>
         <v>1.7100000000000001E-2</v>
       </c>
@@ -1942,20 +1927,20 @@
         <v>62</v>
       </c>
       <c r="AF19" s="6"/>
-      <c r="AG19" s="55" t="s">
+      <c r="AG19" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="AH19" s="55"/>
-      <c r="AI19" s="55" t="s">
+      <c r="AH19" s="46"/>
+      <c r="AI19" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="AJ19" s="55"/>
+      <c r="AJ19" s="46"/>
     </row>
     <row r="20" spans="13:36" x14ac:dyDescent="0.3">
-      <c r="M20" s="29"/>
-      <c r="N20" s="29"/>
-      <c r="O20" s="29"/>
-      <c r="P20" s="30"/>
+      <c r="M20" s="24"/>
+      <c r="N20" s="24"/>
+      <c r="O20" s="24"/>
+      <c r="P20" s="25"/>
       <c r="Q20" s="19" t="s">
         <v>16</v>
       </c>
@@ -1966,7 +1951,7 @@
       <c r="T20" s="8">
         <v>2019</v>
       </c>
-      <c r="U20" s="27">
+      <c r="U20" s="23">
         <f t="shared" si="1"/>
         <v>1.6000000000000001E-3</v>
       </c>
@@ -1989,10 +1974,10 @@
       </c>
     </row>
     <row r="21" spans="13:36" x14ac:dyDescent="0.3">
-      <c r="M21" s="29"/>
-      <c r="N21" s="29"/>
-      <c r="O21" s="29"/>
-      <c r="P21" s="30"/>
+      <c r="M21" s="24"/>
+      <c r="N21" s="24"/>
+      <c r="O21" s="24"/>
+      <c r="P21" s="25"/>
       <c r="Q21" s="19" t="s">
         <v>17</v>
       </c>
@@ -2003,7 +1988,7 @@
       <c r="T21" s="8">
         <v>2019</v>
       </c>
-      <c r="U21" s="27">
+      <c r="U21" s="23">
         <f t="shared" si="1"/>
         <v>1.5800000000000002E-2</v>
       </c>
@@ -2028,10 +2013,10 @@
       </c>
     </row>
     <row r="22" spans="13:36" x14ac:dyDescent="0.3">
-      <c r="M22" s="29"/>
-      <c r="N22" s="29"/>
-      <c r="O22" s="29"/>
-      <c r="P22" s="30"/>
+      <c r="M22" s="24"/>
+      <c r="N22" s="24"/>
+      <c r="O22" s="24"/>
+      <c r="P22" s="25"/>
       <c r="Q22" s="19" t="s">
         <v>18</v>
       </c>
@@ -2042,7 +2027,7 @@
       <c r="T22" s="8">
         <v>2019</v>
       </c>
-      <c r="U22" s="27">
+      <c r="U22" s="23">
         <f t="shared" si="1"/>
         <v>1.4500000000000001E-2</v>
       </c>
@@ -2070,10 +2055,10 @@
       </c>
     </row>
     <row r="23" spans="13:36" x14ac:dyDescent="0.3">
-      <c r="M23" s="29"/>
-      <c r="N23" s="29"/>
-      <c r="O23" s="29"/>
-      <c r="P23" s="30"/>
+      <c r="M23" s="24"/>
+      <c r="N23" s="24"/>
+      <c r="O23" s="24"/>
+      <c r="P23" s="25"/>
       <c r="Q23" s="19" t="s">
         <v>19</v>
       </c>
@@ -2084,7 +2069,7 @@
       <c r="T23" s="8">
         <v>2019</v>
       </c>
-      <c r="U23" s="27">
+      <c r="U23" s="23">
         <f t="shared" si="1"/>
         <v>1.2999999999999999E-3</v>
       </c>
@@ -2112,10 +2097,10 @@
       </c>
     </row>
     <row r="24" spans="13:36" x14ac:dyDescent="0.3">
-      <c r="M24" s="29"/>
-      <c r="N24" s="29"/>
-      <c r="O24" s="29"/>
-      <c r="P24" s="30"/>
+      <c r="M24" s="24"/>
+      <c r="N24" s="24"/>
+      <c r="O24" s="24"/>
+      <c r="P24" s="25"/>
       <c r="Q24" s="19" t="s">
         <v>20</v>
       </c>
@@ -2126,7 +2111,7 @@
       <c r="T24" s="8">
         <v>2019</v>
       </c>
-      <c r="U24" s="27">
+      <c r="U24" s="23">
         <f t="shared" si="1"/>
         <v>2.47E-2</v>
       </c>
@@ -2154,10 +2139,10 @@
       </c>
     </row>
     <row r="25" spans="13:36" x14ac:dyDescent="0.3">
-      <c r="M25" s="29"/>
-      <c r="N25" s="29"/>
-      <c r="O25" s="29"/>
-      <c r="P25" s="30"/>
+      <c r="M25" s="24"/>
+      <c r="N25" s="24"/>
+      <c r="O25" s="24"/>
+      <c r="P25" s="25"/>
       <c r="Q25" s="19" t="s">
         <v>21</v>
       </c>
@@ -2168,7 +2153,7 @@
       <c r="T25" s="8">
         <v>2019</v>
       </c>
-      <c r="U25" s="27">
+      <c r="U25" s="23">
         <f t="shared" si="1"/>
         <v>2.2599999999999999E-2</v>
       </c>
@@ -2196,10 +2181,10 @@
       </c>
     </row>
     <row r="26" spans="13:36" x14ac:dyDescent="0.3">
-      <c r="M26" s="29"/>
-      <c r="N26" s="29"/>
-      <c r="O26" s="29"/>
-      <c r="P26" s="30"/>
+      <c r="M26" s="24"/>
+      <c r="N26" s="24"/>
+      <c r="O26" s="24"/>
+      <c r="P26" s="25"/>
       <c r="Q26" s="19" t="s">
         <v>22</v>
       </c>
@@ -2210,7 +2195,7 @@
       <c r="T26" s="8">
         <v>2019</v>
       </c>
-      <c r="U26" s="27">
+      <c r="U26" s="23">
         <f t="shared" si="1"/>
         <v>2.0999999999999999E-3</v>
       </c>
@@ -2238,10 +2223,10 @@
       </c>
     </row>
     <row r="27" spans="13:36" x14ac:dyDescent="0.3">
-      <c r="M27" s="29"/>
-      <c r="N27" s="29"/>
-      <c r="O27" s="29"/>
-      <c r="P27" s="30"/>
+      <c r="M27" s="24"/>
+      <c r="N27" s="24"/>
+      <c r="O27" s="24"/>
+      <c r="P27" s="25"/>
       <c r="Q27" s="19" t="s">
         <v>23</v>
       </c>
@@ -2252,7 +2237,7 @@
       <c r="T27" s="8">
         <v>2019</v>
       </c>
-      <c r="U27" s="27">
+      <c r="U27" s="23">
         <f t="shared" si="1"/>
         <v>1.5800000000000002E-2</v>
       </c>
@@ -2280,10 +2265,10 @@
       </c>
     </row>
     <row r="28" spans="13:36" x14ac:dyDescent="0.3">
-      <c r="M28" s="29"/>
-      <c r="N28" s="29"/>
-      <c r="O28" s="29"/>
-      <c r="P28" s="30"/>
+      <c r="M28" s="24"/>
+      <c r="N28" s="24"/>
+      <c r="O28" s="24"/>
+      <c r="P28" s="25"/>
       <c r="Q28" s="19" t="s">
         <v>24</v>
       </c>
@@ -2294,7 +2279,7 @@
       <c r="T28" s="8">
         <v>2019</v>
       </c>
-      <c r="U28" s="27">
+      <c r="U28" s="23">
         <f t="shared" si="1"/>
         <v>1.4500000000000001E-2</v>
       </c>
@@ -2322,10 +2307,10 @@
       </c>
     </row>
     <row r="29" spans="13:36" x14ac:dyDescent="0.3">
-      <c r="M29" s="29"/>
-      <c r="N29" s="29"/>
-      <c r="O29" s="29"/>
-      <c r="P29" s="30"/>
+      <c r="M29" s="24"/>
+      <c r="N29" s="24"/>
+      <c r="O29" s="24"/>
+      <c r="P29" s="25"/>
       <c r="Q29" s="19" t="s">
         <v>25</v>
       </c>
@@ -2336,7 +2321,7 @@
       <c r="T29" s="8">
         <v>2019</v>
       </c>
-      <c r="U29" s="27">
+      <c r="U29" s="23">
         <f t="shared" si="1"/>
         <v>1.2999999999999999E-3</v>
       </c>
@@ -2364,10 +2349,10 @@
       </c>
     </row>
     <row r="30" spans="13:36" x14ac:dyDescent="0.3">
-      <c r="M30" s="29"/>
-      <c r="N30" s="29"/>
-      <c r="O30" s="29"/>
-      <c r="P30" s="30"/>
+      <c r="M30" s="24"/>
+      <c r="N30" s="24"/>
+      <c r="O30" s="24"/>
+      <c r="P30" s="25"/>
       <c r="Q30" s="16" t="s">
         <v>14</v>
       </c>
@@ -2378,7 +2363,7 @@
       <c r="T30" s="18">
         <v>2019</v>
       </c>
-      <c r="U30" s="26">
+      <c r="U30" s="22">
         <f>ROUND($AI$22*VLOOKUP(LEFT(Q30,2),$AI$5:$AK$8,3,FALSE)*VLOOKUP(RIGHT(Q30,1),$AI$10:$AJ$12,2,FALSE)/8760,4)</f>
         <v>2.4899999999999999E-2</v>
       </c>
@@ -2402,10 +2387,10 @@
       </c>
     </row>
     <row r="31" spans="13:36" x14ac:dyDescent="0.3">
-      <c r="M31" s="29"/>
-      <c r="N31" s="29"/>
-      <c r="O31" s="29"/>
-      <c r="P31" s="30"/>
+      <c r="M31" s="24"/>
+      <c r="N31" s="24"/>
+      <c r="O31" s="24"/>
+      <c r="P31" s="25"/>
       <c r="Q31" s="16" t="s">
         <v>15</v>
       </c>
@@ -2416,7 +2401,7 @@
       <c r="T31" s="18">
         <v>2019</v>
       </c>
-      <c r="U31" s="26">
+      <c r="U31" s="22">
         <f t="shared" ref="U31:U41" si="2">ROUND($AI$22*VLOOKUP(LEFT(Q31,2),$AI$5:$AK$8,3,FALSE)*VLOOKUP(RIGHT(Q31,1),$AI$10:$AJ$12,2,FALSE)/8760,4)</f>
         <v>2.29E-2</v>
       </c>
@@ -2426,10 +2411,10 @@
       </c>
     </row>
     <row r="32" spans="13:36" x14ac:dyDescent="0.3">
-      <c r="M32" s="29"/>
-      <c r="N32" s="29"/>
-      <c r="O32" s="29"/>
-      <c r="P32" s="30"/>
+      <c r="M32" s="24"/>
+      <c r="N32" s="24"/>
+      <c r="O32" s="24"/>
+      <c r="P32" s="25"/>
       <c r="Q32" s="16" t="s">
         <v>16</v>
       </c>
@@ -2440,7 +2425,7 @@
       <c r="T32" s="18">
         <v>2019</v>
       </c>
-      <c r="U32" s="26">
+      <c r="U32" s="22">
         <f t="shared" si="2"/>
         <v>2.0999999999999999E-3</v>
       </c>
@@ -2450,10 +2435,10 @@
       </c>
     </row>
     <row r="33" spans="13:23" x14ac:dyDescent="0.3">
-      <c r="M33" s="29"/>
-      <c r="N33" s="29"/>
-      <c r="O33" s="29"/>
-      <c r="P33" s="30"/>
+      <c r="M33" s="24"/>
+      <c r="N33" s="24"/>
+      <c r="O33" s="24"/>
+      <c r="P33" s="25"/>
       <c r="Q33" s="16" t="s">
         <v>17</v>
       </c>
@@ -2464,7 +2449,7 @@
       <c r="T33" s="18">
         <v>2019</v>
       </c>
-      <c r="U33" s="26">
+      <c r="U33" s="22">
         <f t="shared" si="2"/>
         <v>2.1100000000000001E-2</v>
       </c>
@@ -2474,10 +2459,10 @@
       </c>
     </row>
     <row r="34" spans="13:23" x14ac:dyDescent="0.3">
-      <c r="M34" s="29"/>
-      <c r="N34" s="29"/>
-      <c r="O34" s="29"/>
-      <c r="P34" s="30"/>
+      <c r="M34" s="24"/>
+      <c r="N34" s="24"/>
+      <c r="O34" s="24"/>
+      <c r="P34" s="25"/>
       <c r="Q34" s="16" t="s">
         <v>18</v>
       </c>
@@ -2488,7 +2473,7 @@
       <c r="T34" s="18">
         <v>2019</v>
       </c>
-      <c r="U34" s="26">
+      <c r="U34" s="22">
         <f t="shared" si="2"/>
         <v>1.9300000000000001E-2</v>
       </c>
@@ -2498,10 +2483,10 @@
       </c>
     </row>
     <row r="35" spans="13:23" x14ac:dyDescent="0.3">
-      <c r="M35" s="29"/>
-      <c r="N35" s="29"/>
-      <c r="O35" s="29"/>
-      <c r="P35" s="30"/>
+      <c r="M35" s="24"/>
+      <c r="N35" s="24"/>
+      <c r="O35" s="24"/>
+      <c r="P35" s="25"/>
       <c r="Q35" s="16" t="s">
         <v>19</v>
       </c>
@@ -2512,7 +2497,7 @@
       <c r="T35" s="18">
         <v>2019</v>
       </c>
-      <c r="U35" s="26">
+      <c r="U35" s="22">
         <f t="shared" si="2"/>
         <v>1.8E-3</v>
       </c>
@@ -2522,10 +2507,10 @@
       </c>
     </row>
     <row r="36" spans="13:23" x14ac:dyDescent="0.3">
-      <c r="M36" s="29"/>
-      <c r="N36" s="29"/>
-      <c r="O36" s="29"/>
-      <c r="P36" s="30"/>
+      <c r="M36" s="24"/>
+      <c r="N36" s="24"/>
+      <c r="O36" s="24"/>
+      <c r="P36" s="25"/>
       <c r="Q36" s="16" t="s">
         <v>20</v>
       </c>
@@ -2536,7 +2521,7 @@
       <c r="T36" s="18">
         <v>2019</v>
       </c>
-      <c r="U36" s="26">
+      <c r="U36" s="22">
         <f t="shared" si="2"/>
         <v>3.2899999999999999E-2</v>
       </c>
@@ -2546,10 +2531,10 @@
       </c>
     </row>
     <row r="37" spans="13:23" x14ac:dyDescent="0.3">
-      <c r="M37" s="29"/>
-      <c r="N37" s="29"/>
-      <c r="O37" s="29"/>
-      <c r="P37" s="30"/>
+      <c r="M37" s="24"/>
+      <c r="N37" s="24"/>
+      <c r="O37" s="24"/>
+      <c r="P37" s="25"/>
       <c r="Q37" s="16" t="s">
         <v>21</v>
       </c>
@@ -2560,7 +2545,7 @@
       <c r="T37" s="18">
         <v>2019</v>
       </c>
-      <c r="U37" s="26">
+      <c r="U37" s="22">
         <f t="shared" si="2"/>
         <v>3.0099999999999998E-2</v>
       </c>
@@ -2570,10 +2555,10 @@
       </c>
     </row>
     <row r="38" spans="13:23" x14ac:dyDescent="0.3">
-      <c r="M38" s="29"/>
-      <c r="N38" s="29"/>
-      <c r="O38" s="29"/>
-      <c r="P38" s="30"/>
+      <c r="M38" s="24"/>
+      <c r="N38" s="24"/>
+      <c r="O38" s="24"/>
+      <c r="P38" s="25"/>
       <c r="Q38" s="16" t="s">
         <v>22</v>
       </c>
@@ -2584,7 +2569,7 @@
       <c r="T38" s="18">
         <v>2019</v>
       </c>
-      <c r="U38" s="26">
+      <c r="U38" s="22">
         <f t="shared" si="2"/>
         <v>2.7000000000000001E-3</v>
       </c>
@@ -2594,10 +2579,10 @@
       </c>
     </row>
     <row r="39" spans="13:23" x14ac:dyDescent="0.3">
-      <c r="M39" s="29"/>
-      <c r="N39" s="29"/>
-      <c r="O39" s="29"/>
-      <c r="P39" s="30"/>
+      <c r="M39" s="24"/>
+      <c r="N39" s="24"/>
+      <c r="O39" s="24"/>
+      <c r="P39" s="25"/>
       <c r="Q39" s="16" t="s">
         <v>23</v>
       </c>
@@ -2608,7 +2593,7 @@
       <c r="T39" s="18">
         <v>2019</v>
       </c>
-      <c r="U39" s="26">
+      <c r="U39" s="22">
         <f t="shared" si="2"/>
         <v>2.1100000000000001E-2</v>
       </c>
@@ -2618,10 +2603,10 @@
       </c>
     </row>
     <row r="40" spans="13:23" x14ac:dyDescent="0.3">
-      <c r="M40" s="29"/>
-      <c r="N40" s="29"/>
-      <c r="O40" s="29"/>
-      <c r="P40" s="30"/>
+      <c r="M40" s="24"/>
+      <c r="N40" s="24"/>
+      <c r="O40" s="24"/>
+      <c r="P40" s="25"/>
       <c r="Q40" s="16" t="s">
         <v>24</v>
       </c>
@@ -2632,7 +2617,7 @@
       <c r="T40" s="18">
         <v>2019</v>
       </c>
-      <c r="U40" s="26">
+      <c r="U40" s="22">
         <f t="shared" si="2"/>
         <v>1.9300000000000001E-2</v>
       </c>
@@ -2642,10 +2627,10 @@
       </c>
     </row>
     <row r="41" spans="13:23" x14ac:dyDescent="0.3">
-      <c r="M41" s="29"/>
-      <c r="N41" s="29"/>
-      <c r="O41" s="29"/>
-      <c r="P41" s="30"/>
+      <c r="M41" s="24"/>
+      <c r="N41" s="24"/>
+      <c r="O41" s="24"/>
+      <c r="P41" s="25"/>
       <c r="Q41" s="16" t="s">
         <v>25</v>
       </c>
@@ -2656,7 +2641,7 @@
       <c r="T41" s="18">
         <v>2019</v>
       </c>
-      <c r="U41" s="26">
+      <c r="U41" s="22">
         <f t="shared" si="2"/>
         <v>1.8E-3</v>
       </c>
@@ -2666,10 +2651,10 @@
       </c>
     </row>
     <row r="42" spans="13:23" x14ac:dyDescent="0.3">
-      <c r="M42" s="29"/>
-      <c r="N42" s="29"/>
-      <c r="O42" s="29"/>
-      <c r="P42" s="30"/>
+      <c r="M42" s="24"/>
+      <c r="N42" s="24"/>
+      <c r="O42" s="24"/>
+      <c r="P42" s="25"/>
       <c r="Q42" s="19" t="s">
         <v>14</v>
       </c>
@@ -2680,7 +2665,7 @@
       <c r="T42" s="8">
         <v>2019</v>
       </c>
-      <c r="U42" s="27">
+      <c r="U42" s="23">
         <f>ROUND($AI$28*VLOOKUP(LEFT(Q42,2),$AI$5:$AK$8,3,FALSE)*VLOOKUP(RIGHT(Q42,1),$AI$10:$AJ$12,2,FALSE)/8760,4)</f>
         <v>2.4899999999999999E-2</v>
       </c>
@@ -2690,10 +2675,10 @@
       </c>
     </row>
     <row r="43" spans="13:23" x14ac:dyDescent="0.3">
-      <c r="M43" s="29"/>
-      <c r="N43" s="29"/>
-      <c r="O43" s="29"/>
-      <c r="P43" s="30"/>
+      <c r="M43" s="24"/>
+      <c r="N43" s="24"/>
+      <c r="O43" s="24"/>
+      <c r="P43" s="25"/>
       <c r="Q43" s="19" t="s">
         <v>15</v>
       </c>
@@ -2704,7 +2689,7 @@
       <c r="T43" s="8">
         <v>2019</v>
       </c>
-      <c r="U43" s="27">
+      <c r="U43" s="23">
         <f t="shared" ref="U43:U53" si="3">ROUND($AI$28*VLOOKUP(LEFT(Q43,2),$AI$5:$AK$8,3,FALSE)*VLOOKUP(RIGHT(Q43,1),$AI$10:$AJ$12,2,FALSE)/8760,4)</f>
         <v>2.29E-2</v>
       </c>
@@ -2714,10 +2699,10 @@
       </c>
     </row>
     <row r="44" spans="13:23" x14ac:dyDescent="0.3">
-      <c r="M44" s="29"/>
-      <c r="N44" s="29"/>
-      <c r="O44" s="29"/>
-      <c r="P44" s="30"/>
+      <c r="M44" s="24"/>
+      <c r="N44" s="24"/>
+      <c r="O44" s="24"/>
+      <c r="P44" s="25"/>
       <c r="Q44" s="19" t="s">
         <v>16</v>
       </c>
@@ -2728,7 +2713,7 @@
       <c r="T44" s="8">
         <v>2019</v>
       </c>
-      <c r="U44" s="27">
+      <c r="U44" s="23">
         <f t="shared" si="3"/>
         <v>2.0999999999999999E-3</v>
       </c>
@@ -2738,9 +2723,9 @@
       </c>
     </row>
     <row r="45" spans="13:23" x14ac:dyDescent="0.3">
-      <c r="N45" s="29"/>
-      <c r="O45" s="29"/>
-      <c r="P45" s="30"/>
+      <c r="N45" s="24"/>
+      <c r="O45" s="24"/>
+      <c r="P45" s="25"/>
       <c r="Q45" s="19" t="s">
         <v>17</v>
       </c>
@@ -2751,7 +2736,7 @@
       <c r="T45" s="8">
         <v>2019</v>
       </c>
-      <c r="U45" s="27">
+      <c r="U45" s="23">
         <f t="shared" si="3"/>
         <v>2.1100000000000001E-2</v>
       </c>
@@ -2771,7 +2756,7 @@
       <c r="T46" s="8">
         <v>2019</v>
       </c>
-      <c r="U46" s="27">
+      <c r="U46" s="23">
         <f t="shared" si="3"/>
         <v>1.9300000000000001E-2</v>
       </c>
@@ -2791,7 +2776,7 @@
       <c r="T47" s="8">
         <v>2019</v>
       </c>
-      <c r="U47" s="27">
+      <c r="U47" s="23">
         <f t="shared" si="3"/>
         <v>1.8E-3</v>
       </c>
@@ -2811,7 +2796,7 @@
       <c r="T48" s="8">
         <v>2019</v>
       </c>
-      <c r="U48" s="27">
+      <c r="U48" s="23">
         <f t="shared" si="3"/>
         <v>3.2899999999999999E-2</v>
       </c>
@@ -2831,7 +2816,7 @@
       <c r="T49" s="8">
         <v>2019</v>
       </c>
-      <c r="U49" s="27">
+      <c r="U49" s="23">
         <f t="shared" si="3"/>
         <v>3.0099999999999998E-2</v>
       </c>
@@ -2851,7 +2836,7 @@
       <c r="T50" s="8">
         <v>2019</v>
       </c>
-      <c r="U50" s="27">
+      <c r="U50" s="23">
         <f t="shared" si="3"/>
         <v>2.7000000000000001E-3</v>
       </c>
@@ -2871,7 +2856,7 @@
       <c r="T51" s="8">
         <v>2019</v>
       </c>
-      <c r="U51" s="27">
+      <c r="U51" s="23">
         <f t="shared" si="3"/>
         <v>2.1100000000000001E-2</v>
       </c>
@@ -2891,7 +2876,7 @@
       <c r="T52" s="8">
         <v>2019</v>
       </c>
-      <c r="U52" s="27">
+      <c r="U52" s="23">
         <f t="shared" si="3"/>
         <v>1.9300000000000001E-2</v>
       </c>
@@ -2911,7 +2896,7 @@
       <c r="T53" s="8">
         <v>2019</v>
       </c>
-      <c r="U53" s="27">
+      <c r="U53" s="23">
         <f t="shared" si="3"/>
         <v>1.8E-3</v>
       </c>
@@ -2921,220 +2906,76 @@
       </c>
     </row>
     <row r="54" spans="17:23" x14ac:dyDescent="0.3">
-      <c r="Q54" s="23"/>
-      <c r="R54" s="21"/>
-      <c r="S54" s="21"/>
-      <c r="T54" s="24"/>
-      <c r="U54" s="28"/>
-      <c r="V54" s="21"/>
-      <c r="W54" s="21"/>
+      <c r="Q54" s="2"/>
     </row>
     <row r="55" spans="17:23" x14ac:dyDescent="0.3">
-      <c r="Q55" s="23"/>
-      <c r="R55" s="21"/>
-      <c r="S55" s="21"/>
-      <c r="T55" s="24"/>
-      <c r="U55" s="28"/>
-      <c r="V55" s="21"/>
-      <c r="W55" s="21"/>
+      <c r="Q55" s="2"/>
     </row>
     <row r="56" spans="17:23" x14ac:dyDescent="0.3">
-      <c r="Q56" s="23"/>
-      <c r="R56" s="21"/>
-      <c r="S56" s="21"/>
-      <c r="T56" s="24"/>
-      <c r="U56" s="28"/>
-      <c r="V56" s="21"/>
-      <c r="W56" s="21"/>
+      <c r="Q56" s="2"/>
     </row>
     <row r="57" spans="17:23" x14ac:dyDescent="0.3">
-      <c r="Q57" s="23"/>
-      <c r="R57" s="21"/>
-      <c r="S57" s="21"/>
-      <c r="T57" s="24"/>
-      <c r="U57" s="28"/>
-      <c r="V57" s="21"/>
-      <c r="W57" s="21"/>
+      <c r="Q57" s="2"/>
     </row>
     <row r="58" spans="17:23" x14ac:dyDescent="0.3">
-      <c r="Q58" s="23"/>
-      <c r="R58" s="21"/>
-      <c r="S58" s="21"/>
-      <c r="T58" s="24"/>
-      <c r="U58" s="28"/>
-      <c r="V58" s="21"/>
-      <c r="W58" s="21"/>
+      <c r="Q58" s="2"/>
     </row>
     <row r="59" spans="17:23" x14ac:dyDescent="0.3">
-      <c r="Q59" s="23"/>
-      <c r="R59" s="21"/>
-      <c r="S59" s="21"/>
-      <c r="T59" s="24"/>
-      <c r="U59" s="28"/>
-      <c r="V59" s="21"/>
-      <c r="W59" s="21"/>
+      <c r="Q59" s="2"/>
     </row>
     <row r="60" spans="17:23" x14ac:dyDescent="0.3">
-      <c r="Q60" s="23"/>
-      <c r="R60" s="21"/>
-      <c r="S60" s="21"/>
-      <c r="T60" s="24"/>
-      <c r="U60" s="28"/>
-      <c r="V60" s="21"/>
-      <c r="W60" s="21"/>
+      <c r="Q60" s="2"/>
     </row>
     <row r="61" spans="17:23" x14ac:dyDescent="0.3">
-      <c r="Q61" s="23"/>
-      <c r="R61" s="21"/>
-      <c r="S61" s="21"/>
-      <c r="T61" s="24"/>
-      <c r="U61" s="28"/>
-      <c r="V61" s="21"/>
-      <c r="W61" s="21"/>
+      <c r="Q61" s="2"/>
     </row>
     <row r="62" spans="17:23" x14ac:dyDescent="0.3">
-      <c r="Q62" s="23"/>
-      <c r="R62" s="21"/>
-      <c r="S62" s="21"/>
-      <c r="T62" s="24"/>
-      <c r="U62" s="28"/>
-      <c r="V62" s="21"/>
-      <c r="W62" s="21"/>
+      <c r="Q62" s="2"/>
     </row>
     <row r="63" spans="17:23" x14ac:dyDescent="0.3">
-      <c r="Q63" s="23"/>
-      <c r="R63" s="21"/>
-      <c r="S63" s="21"/>
-      <c r="T63" s="24"/>
-      <c r="U63" s="28"/>
-      <c r="V63" s="21"/>
-      <c r="W63" s="21"/>
+      <c r="Q63" s="2"/>
     </row>
     <row r="64" spans="17:23" x14ac:dyDescent="0.3">
-      <c r="Q64" s="23"/>
-      <c r="R64" s="21"/>
-      <c r="S64" s="21"/>
-      <c r="T64" s="24"/>
-      <c r="U64" s="28"/>
-      <c r="V64" s="21"/>
-      <c r="W64" s="21"/>
-    </row>
-    <row r="65" spans="17:23" x14ac:dyDescent="0.3">
-      <c r="Q65" s="23"/>
-      <c r="R65" s="21"/>
-      <c r="S65" s="21"/>
-      <c r="T65" s="24"/>
-      <c r="U65" s="28"/>
-      <c r="V65" s="21"/>
-      <c r="W65" s="21"/>
-    </row>
-    <row r="66" spans="17:23" x14ac:dyDescent="0.3">
-      <c r="Q66" s="23"/>
-      <c r="R66" s="21"/>
-      <c r="S66" s="21"/>
-      <c r="T66" s="24"/>
-      <c r="U66" s="28"/>
-      <c r="V66" s="21"/>
-      <c r="W66" s="21"/>
-    </row>
-    <row r="67" spans="17:23" x14ac:dyDescent="0.3">
-      <c r="Q67" s="23"/>
-      <c r="R67" s="21"/>
-      <c r="S67" s="21"/>
-      <c r="T67" s="24"/>
-      <c r="U67" s="28"/>
-      <c r="V67" s="21"/>
-      <c r="W67" s="21"/>
-    </row>
-    <row r="68" spans="17:23" x14ac:dyDescent="0.3">
-      <c r="Q68" s="23"/>
-      <c r="R68" s="21"/>
-      <c r="S68" s="21"/>
-      <c r="T68" s="24"/>
-      <c r="U68" s="28"/>
-      <c r="V68" s="21"/>
-      <c r="W68" s="21"/>
-    </row>
-    <row r="69" spans="17:23" x14ac:dyDescent="0.3">
-      <c r="Q69" s="23"/>
-      <c r="R69" s="21"/>
-      <c r="S69" s="21"/>
-      <c r="T69" s="24"/>
-      <c r="U69" s="28"/>
-      <c r="V69" s="21"/>
-      <c r="W69" s="21"/>
-    </row>
-    <row r="70" spans="17:23" x14ac:dyDescent="0.3">
-      <c r="Q70" s="23"/>
-      <c r="R70" s="21"/>
-      <c r="S70" s="21"/>
-      <c r="T70" s="24"/>
-      <c r="U70" s="28"/>
-      <c r="V70" s="21"/>
-      <c r="W70" s="21"/>
-    </row>
-    <row r="71" spans="17:23" x14ac:dyDescent="0.3">
-      <c r="Q71" s="23"/>
-      <c r="R71" s="21"/>
-      <c r="S71" s="21"/>
-      <c r="T71" s="24"/>
-      <c r="U71" s="28"/>
-      <c r="V71" s="21"/>
-      <c r="W71" s="21"/>
-    </row>
-    <row r="72" spans="17:23" x14ac:dyDescent="0.3">
-      <c r="Q72" s="23"/>
-      <c r="R72" s="21"/>
-      <c r="S72" s="21"/>
-      <c r="T72" s="24"/>
-      <c r="U72" s="28"/>
-      <c r="V72" s="21"/>
-      <c r="W72" s="21"/>
-    </row>
-    <row r="73" spans="17:23" x14ac:dyDescent="0.3">
-      <c r="Q73" s="23"/>
-      <c r="R73" s="21"/>
-      <c r="S73" s="21"/>
-      <c r="T73" s="24"/>
-      <c r="U73" s="28"/>
-      <c r="V73" s="21"/>
-      <c r="W73" s="21"/>
-    </row>
-    <row r="74" spans="17:23" x14ac:dyDescent="0.3">
-      <c r="Q74" s="23"/>
-      <c r="R74" s="21"/>
-      <c r="S74" s="21"/>
-      <c r="T74" s="24"/>
-      <c r="U74" s="28"/>
-      <c r="V74" s="21"/>
-      <c r="W74" s="21"/>
-    </row>
-    <row r="75" spans="17:23" x14ac:dyDescent="0.3">
-      <c r="Q75" s="23"/>
-      <c r="R75" s="21"/>
-      <c r="S75" s="21"/>
-      <c r="T75" s="24"/>
-      <c r="U75" s="28"/>
-      <c r="V75" s="21"/>
-      <c r="W75" s="21"/>
-    </row>
-    <row r="76" spans="17:23" x14ac:dyDescent="0.3">
-      <c r="Q76" s="23"/>
-      <c r="R76" s="21"/>
-      <c r="S76" s="21"/>
-      <c r="T76" s="24"/>
-      <c r="U76" s="28"/>
-      <c r="V76" s="21"/>
-      <c r="W76" s="21"/>
-    </row>
-    <row r="77" spans="17:23" x14ac:dyDescent="0.3">
-      <c r="Q77" s="23"/>
-      <c r="R77" s="21"/>
-      <c r="S77" s="21"/>
-      <c r="T77" s="24"/>
-      <c r="U77" s="28"/>
-      <c r="V77" s="21"/>
-      <c r="W77" s="21"/>
+      <c r="Q64" s="2"/>
+    </row>
+    <row r="65" spans="17:17" x14ac:dyDescent="0.3">
+      <c r="Q65" s="2"/>
+    </row>
+    <row r="66" spans="17:17" x14ac:dyDescent="0.3">
+      <c r="Q66" s="2"/>
+    </row>
+    <row r="67" spans="17:17" x14ac:dyDescent="0.3">
+      <c r="Q67" s="2"/>
+    </row>
+    <row r="68" spans="17:17" x14ac:dyDescent="0.3">
+      <c r="Q68" s="2"/>
+    </row>
+    <row r="69" spans="17:17" x14ac:dyDescent="0.3">
+      <c r="Q69" s="2"/>
+    </row>
+    <row r="70" spans="17:17" x14ac:dyDescent="0.3">
+      <c r="Q70" s="2"/>
+    </row>
+    <row r="71" spans="17:17" x14ac:dyDescent="0.3">
+      <c r="Q71" s="2"/>
+    </row>
+    <row r="72" spans="17:17" x14ac:dyDescent="0.3">
+      <c r="Q72" s="2"/>
+    </row>
+    <row r="73" spans="17:17" x14ac:dyDescent="0.3">
+      <c r="Q73" s="2"/>
+    </row>
+    <row r="74" spans="17:17" x14ac:dyDescent="0.3">
+      <c r="Q74" s="2"/>
+    </row>
+    <row r="75" spans="17:17" x14ac:dyDescent="0.3">
+      <c r="Q75" s="2"/>
+    </row>
+    <row r="76" spans="17:17" x14ac:dyDescent="0.3">
+      <c r="Q76" s="2"/>
+    </row>
+    <row r="77" spans="17:17" x14ac:dyDescent="0.3">
+      <c r="Q77" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/SubRES_TMPL/SubRES_B-NewTechs_RSD_Trans.xlsx
+++ b/SubRES_TMPL/SubRES_B-NewTechs_RSD_Trans.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda_models\Gällivare\Gallivare_Model_230318\SubRES_TMPL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda_models\Gällivare\Gallivare_Model_230327\SubRES_TMPL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A29070D-7116-44D7-AECE-E91BFF5371D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{912CC3B1-D35B-419C-AF5E-0F017E59A63F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30615" yWindow="1440" windowWidth="24780" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="34575" yWindow="2700" windowWidth="17280" windowHeight="10050" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UPD_AF" sheetId="4" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="88">
   <si>
     <t>TimeSlice</t>
   </si>
@@ -273,9 +273,6 @@
     <t>RH*SAV*</t>
   </si>
   <si>
-    <t>RH*BFW*,RH*BPL*,RH*COA*,RH*GAS*,RH*LPG*,RH*OIL*,RH*WOF*,RH*WOO*</t>
-  </si>
-  <si>
     <t>RH*HTH*</t>
   </si>
   <si>
@@ -292,6 +289,15 @@
   </si>
   <si>
     <t>RH*HP*</t>
+  </si>
+  <si>
+    <t>RH*BFW*,RH*BPL*,RH*WOF*,RH*WOO*</t>
+  </si>
+  <si>
+    <t>RH*COA*,RH*GAS*,RH*LPG*,RH*OIL*</t>
+  </si>
+  <si>
+    <t>*NCAP_AFA</t>
   </si>
 </sst>
 </file>
@@ -485,7 +491,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -570,10 +576,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -864,7 +874,7 @@
   <dimension ref="B2:K13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -872,12 +882,12 @@
     <col min="2" max="2" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.5546875" customWidth="1"/>
     <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.109375" style="6" customWidth="1"/>
+    <col min="7" max="7" width="69.109375" style="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B2" s="35" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C2" s="36"/>
       <c r="D2" s="36"/>
@@ -928,13 +938,13 @@
         <v>70</v>
       </c>
       <c r="E4" s="36"/>
-      <c r="F4" s="45">
+      <c r="F4" s="44">
         <f>IF(OR(FILL_AF!H5="",FILL_AF!H5=0), 0.05,FILL_AF!H5)</f>
-        <v>0.19900000000000001</v>
+        <v>0.2</v>
       </c>
       <c r="G4" s="43" t="str">
         <f>FILL_AF!J5</f>
-        <v>RH*BFW*,RH*BPL*,RH*COA*,RH*GAS*,RH*LPG*,RH*OIL*,RH*WOF*,RH*WOO*</v>
+        <v>RH*BFW*,RH*BPL*,RH*WOF*,RH*WOO*</v>
       </c>
       <c r="H4" s="36"/>
       <c r="I4" s="39"/>
@@ -948,13 +958,13 @@
         <v>70</v>
       </c>
       <c r="E5" s="36"/>
-      <c r="F5" s="40">
+      <c r="F5" s="44">
         <f>IF(OR(FILL_AF!H6="",FILL_AF!H6=0), 0.05,FILL_AF!H6)</f>
-        <v>4.9999999999999899E-2</v>
+        <v>0.19852941176470601</v>
       </c>
       <c r="G5" s="43" t="str">
         <f>FILL_AF!J6</f>
-        <v>RK*</v>
+        <v>RH*COA*,RH*GAS*,RH*LPG*,RH*OIL*</v>
       </c>
       <c r="H5" s="36"/>
       <c r="I5" s="39"/>
@@ -968,13 +978,13 @@
         <v>70</v>
       </c>
       <c r="E6" s="36"/>
-      <c r="F6" s="40">
+      <c r="F6" s="44">
         <f>IF(OR(FILL_AF!H7="",FILL_AF!H7=0), 0.05,FILL_AF!H7)</f>
-        <v>0.60000000000000098</v>
+        <v>4.9999999999999899E-2</v>
       </c>
       <c r="G6" s="43" t="str">
         <f>FILL_AF!J7</f>
-        <v>RL*</v>
+        <v>RK*</v>
       </c>
       <c r="H6" s="36"/>
       <c r="I6" s="39"/>
@@ -988,13 +998,13 @@
         <v>70</v>
       </c>
       <c r="E7" s="36"/>
-      <c r="F7" s="40">
+      <c r="F7" s="44">
         <f>IF(OR(FILL_AF!H8="",FILL_AF!H8=0), 0.05,FILL_AF!H8)</f>
-        <v>1</v>
-      </c>
-      <c r="G7" s="44" t="str">
+        <v>0.60000000000000098</v>
+      </c>
+      <c r="G7" s="43" t="str">
         <f>FILL_AF!J8</f>
-        <v>RO*</v>
+        <v>RL*</v>
       </c>
       <c r="H7" s="36"/>
       <c r="I7" s="39"/>
@@ -1008,13 +1018,13 @@
         <v>70</v>
       </c>
       <c r="E8" s="36"/>
-      <c r="F8" s="40">
+      <c r="F8" s="44">
         <f>IF(OR(FILL_AF!H9="",FILL_AF!H9=0), 0.05,FILL_AF!H9)</f>
-        <v>0.05</v>
-      </c>
-      <c r="G8" s="44" t="str">
+        <v>1</v>
+      </c>
+      <c r="G8" s="43" t="str">
         <f>FILL_AF!J9</f>
-        <v>RH*SAV*</v>
+        <v>RO*</v>
       </c>
       <c r="H8" s="36"/>
       <c r="I8" s="39"/>
@@ -1028,13 +1038,13 @@
         <v>70</v>
       </c>
       <c r="E9" s="36"/>
-      <c r="F9" s="40">
+      <c r="F9" s="44">
         <f>IF(OR(FILL_AF!H10="",FILL_AF!H10=0), 0.05,FILL_AF!H10)</f>
-        <v>0.17499999999999999</v>
-      </c>
-      <c r="G9" s="44" t="str">
+        <v>0.05</v>
+      </c>
+      <c r="G9" s="43" t="str">
         <f>FILL_AF!J10</f>
-        <v>RH*HTH*</v>
+        <v>RH*SAV*</v>
       </c>
       <c r="H9" s="36"/>
       <c r="I9" s="39"/>
@@ -1048,13 +1058,13 @@
         <v>70</v>
       </c>
       <c r="E10" s="36"/>
-      <c r="F10" s="40">
+      <c r="F10" s="44">
         <f>IF(OR(FILL_AF!H11="",FILL_AF!H11=0), 0.05,FILL_AF!H11)</f>
-        <v>0.22500000000000001</v>
-      </c>
-      <c r="G10" s="44" t="str">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="G10" s="43" t="str">
         <f>FILL_AF!J11</f>
-        <v>RH*SOL*</v>
+        <v>RH*HTH*</v>
       </c>
       <c r="H10" s="36"/>
       <c r="I10" s="39"/>
@@ -1068,12 +1078,13 @@
         <v>70</v>
       </c>
       <c r="E11" s="36"/>
-      <c r="F11" s="40">
+      <c r="F11" s="44">
         <f>IF(OR(FILL_AF!H12="",FILL_AF!H12=0), 0.05,FILL_AF!H12)</f>
-        <v>0.17499999999999999</v>
-      </c>
-      <c r="G11" s="44" t="s">
-        <v>85</v>
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="G11" s="43" t="str">
+        <f>FILL_AF!J12</f>
+        <v>RH*SOL*</v>
       </c>
       <c r="H11" s="36"/>
       <c r="I11" s="39"/>
@@ -1083,18 +1094,33 @@
     <row r="12" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B12" s="36"/>
       <c r="C12" s="36"/>
-      <c r="D12" s="36"/>
+      <c r="D12" s="36" t="s">
+        <v>87</v>
+      </c>
       <c r="E12" s="36"/>
-      <c r="F12" s="40"/>
-      <c r="G12" s="44"/>
+      <c r="F12" s="44">
+        <f>IF(OR(FILL_AF!H13="",FILL_AF!H13=0), 0.05,FILL_AF!H13)</f>
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="G12" s="43" t="str">
+        <f>FILL_AF!J13</f>
+        <v>RH*AHT*</v>
+      </c>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B13" s="36"/>
       <c r="C13" s="36"/>
-      <c r="D13" s="36"/>
+      <c r="D13" s="36" t="s">
+        <v>70</v>
+      </c>
       <c r="E13" s="36"/>
-      <c r="F13" s="40"/>
-      <c r="G13" s="44"/>
+      <c r="F13" s="44">
+        <f>F12</f>
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="G13" s="43" t="s">
+        <v>84</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1103,40 +1129,40 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B3:AL77"/>
+  <dimension ref="B3:AL78"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="25.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.44140625" customWidth="1"/>
     <col min="7" max="7" width="5.6640625" customWidth="1"/>
     <col min="8" max="8" width="8.109375" style="6" customWidth="1"/>
     <col min="9" max="9" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.5546875" customWidth="1"/>
+    <col min="10" max="10" width="74.88671875" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="10.6640625" customWidth="1"/>
-    <col min="18" max="18" width="8.21875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.33203125" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="9.5546875" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="8.88671875" style="4"/>
     <col min="21" max="21" width="11.33203125" style="6" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="11.6640625" customWidth="1"/>
     <col min="29" max="29" width="8.5546875" customWidth="1"/>
     <col min="31" max="31" width="18.44140625" customWidth="1"/>
-    <col min="32" max="32" width="18.77734375" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="18.6640625" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="14.33203125" customWidth="1"/>
     <col min="34" max="34" width="14.109375" customWidth="1"/>
     <col min="35" max="35" width="13.88671875" customWidth="1"/>
-    <col min="36" max="36" width="14.21875" customWidth="1"/>
+    <col min="36" max="36" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:38" x14ac:dyDescent="0.3">
       <c r="B3" s="34" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C3" s="24"/>
       <c r="D3" s="24"/>
@@ -1215,11 +1241,11 @@
       </c>
       <c r="G5" s="24"/>
       <c r="H5" s="31">
-        <v>0.19900000000000001</v>
+        <v>0.2</v>
       </c>
       <c r="I5" s="32"/>
       <c r="J5" s="24" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="K5" s="24"/>
       <c r="L5" s="24"/>
@@ -1301,11 +1327,11 @@
       </c>
       <c r="G6" s="24"/>
       <c r="H6" s="31">
-        <v>4.9999999999999899E-2</v>
+        <v>0.19852941176470601</v>
       </c>
       <c r="I6" s="32"/>
       <c r="J6" s="24" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="K6" s="24"/>
       <c r="L6" s="24"/>
@@ -1313,42 +1339,25 @@
       <c r="N6" s="24"/>
       <c r="O6" s="24"/>
       <c r="P6" s="25"/>
-      <c r="Q6" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="R6" s="17"/>
-      <c r="S6" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="T6" s="18">
-        <v>2019</v>
-      </c>
-      <c r="U6" s="22">
-        <f>ROUND($AG$22*VLOOKUP(LEFT(Q6,2),$AI$5:$AK$8,3,FALSE)*VLOOKUP(RIGHT(Q6,1),$AI$10:$AJ$12,2,FALSE)/8760,4)</f>
-        <v>1.8700000000000001E-2</v>
-      </c>
-      <c r="V6" s="17"/>
-      <c r="W6" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="AF6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="AG6" s="3">
-        <v>0.11427</v>
-      </c>
-      <c r="AI6" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="AJ6" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="AK6" s="12">
-        <v>77</v>
-      </c>
-      <c r="AL6" s="13">
-        <v>0.21095890410958903</v>
-      </c>
+      <c r="Q6" s="45"/>
+      <c r="R6" s="45"/>
+      <c r="S6" s="45"/>
+      <c r="T6" s="46"/>
+      <c r="U6" s="47"/>
+      <c r="V6" s="45"/>
+      <c r="W6" s="45"/>
+      <c r="X6" s="45"/>
+      <c r="Y6" s="45"/>
+      <c r="Z6" s="45"/>
+      <c r="AA6" s="45"/>
+      <c r="AB6" s="45"/>
+      <c r="AC6" s="45"/>
+      <c r="AF6" s="2"/>
+      <c r="AG6" s="3"/>
+      <c r="AI6" s="10"/>
+      <c r="AJ6" s="10"/>
+      <c r="AK6" s="12"/>
+      <c r="AL6" s="13"/>
     </row>
     <row r="7" spans="2:38" x14ac:dyDescent="0.3">
       <c r="B7" s="24" t="s">
@@ -1366,11 +1375,11 @@
       </c>
       <c r="G7" s="24"/>
       <c r="H7" s="31">
-        <v>0.60000000000000098</v>
+        <v>4.9999999999999899E-2</v>
       </c>
       <c r="I7" s="32"/>
       <c r="J7" s="24" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K7" s="24"/>
       <c r="L7" s="24"/>
@@ -1379,7 +1388,7 @@
       <c r="O7" s="24"/>
       <c r="P7" s="25"/>
       <c r="Q7" s="16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="R7" s="17"/>
       <c r="S7" s="17" t="s">
@@ -1389,30 +1398,30 @@
         <v>2019</v>
       </c>
       <c r="U7" s="22">
-        <f t="shared" ref="U7:U17" si="0">ROUND($AG$22*VLOOKUP(LEFT(Q7,2),$AI$5:$AK$8,3,FALSE)*VLOOKUP(RIGHT(Q7,1),$AI$10:$AJ$12,2,FALSE)/8760,4)</f>
-        <v>1.7100000000000001E-2</v>
+        <f>ROUND($AG$23*VLOOKUP(LEFT(Q7,2),$AI$5:$AK$9,3,FALSE)*VLOOKUP(RIGHT(Q7,1),$AI$11:$AJ$13,2,FALSE)/8760,4)</f>
+        <v>1.8700000000000001E-2</v>
       </c>
       <c r="V7" s="17"/>
       <c r="W7" s="17" t="s">
         <v>61</v>
       </c>
       <c r="AF7" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AG7" s="3">
-        <v>1.039E-2</v>
+        <v>0.11427</v>
       </c>
       <c r="AI7" s="10" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="AJ7" s="10" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AK7" s="12">
-        <v>120</v>
+        <v>77</v>
       </c>
       <c r="AL7" s="13">
-        <v>0.32876712328767121</v>
+        <v>0.21095890410958903</v>
       </c>
     </row>
     <row r="8" spans="2:38" x14ac:dyDescent="0.3">
@@ -1431,11 +1440,11 @@
       </c>
       <c r="G8" s="24"/>
       <c r="H8" s="31">
-        <v>1</v>
+        <v>0.60000000000000098</v>
       </c>
       <c r="I8" s="32"/>
       <c r="J8" s="24" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K8" s="24"/>
       <c r="L8" s="24"/>
@@ -1444,7 +1453,7 @@
       <c r="O8" s="24"/>
       <c r="P8" s="25"/>
       <c r="Q8" s="16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="R8" s="17"/>
       <c r="S8" s="17" t="s">
@@ -1454,30 +1463,30 @@
         <v>2019</v>
       </c>
       <c r="U8" s="22">
-        <f t="shared" si="0"/>
-        <v>1.6000000000000001E-3</v>
+        <f t="shared" ref="U8:U18" si="0">ROUND($AG$23*VLOOKUP(LEFT(Q8,2),$AI$5:$AK$9,3,FALSE)*VLOOKUP(RIGHT(Q8,1),$AI$11:$AJ$13,2,FALSE)/8760,4)</f>
+        <v>1.7100000000000001E-2</v>
       </c>
       <c r="V8" s="17"/>
       <c r="W8" s="17" t="s">
         <v>61</v>
       </c>
       <c r="AF8" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AG8" s="3">
-        <v>0.10548</v>
+        <v>1.039E-2</v>
       </c>
       <c r="AI8" s="10" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="AJ8" s="10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AK8" s="12">
-        <v>77</v>
+        <v>120</v>
       </c>
       <c r="AL8" s="13">
-        <v>0.21095890410958903</v>
+        <v>0.32876712328767121</v>
       </c>
     </row>
     <row r="9" spans="2:38" x14ac:dyDescent="0.3">
@@ -1495,19 +1504,21 @@
         <v>71</v>
       </c>
       <c r="G9" s="24"/>
-      <c r="H9" s="31"/>
-      <c r="I9" s="33"/>
+      <c r="H9" s="31">
+        <v>1</v>
+      </c>
+      <c r="I9" s="32"/>
       <c r="J9" s="24" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="K9" s="24"/>
-      <c r="L9" s="29"/>
+      <c r="L9" s="24"/>
       <c r="M9" s="24"/>
       <c r="N9" s="24"/>
       <c r="O9" s="24"/>
       <c r="P9" s="25"/>
       <c r="Q9" s="16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="R9" s="17"/>
       <c r="S9" s="17" t="s">
@@ -1518,25 +1529,29 @@
       </c>
       <c r="U9" s="22">
         <f t="shared" si="0"/>
-        <v>1.5800000000000002E-2</v>
+        <v>1.6000000000000001E-3</v>
       </c>
       <c r="V9" s="17"/>
       <c r="W9" s="17" t="s">
         <v>61</v>
       </c>
       <c r="AF9" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AG9" s="3">
-        <v>9.6689999999999998E-2</v>
-      </c>
-      <c r="AI9" s="2"/>
-      <c r="AJ9" s="14"/>
-      <c r="AK9" s="14">
-        <v>365</v>
-      </c>
-      <c r="AL9" s="14">
-        <v>1</v>
+        <v>0.10548</v>
+      </c>
+      <c r="AI9" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="AJ9" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="AK9" s="12">
+        <v>77</v>
+      </c>
+      <c r="AL9" s="13">
+        <v>0.21095890410958903</v>
       </c>
     </row>
     <row r="10" spans="2:38" x14ac:dyDescent="0.3">
@@ -1554,12 +1569,10 @@
         <v>71</v>
       </c>
       <c r="G10" s="24"/>
-      <c r="H10" s="31">
-        <v>0.17499999999999999</v>
-      </c>
+      <c r="H10" s="31"/>
       <c r="I10" s="33"/>
       <c r="J10" s="24" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="K10" s="24"/>
       <c r="L10" s="29"/>
@@ -1568,7 +1581,7 @@
       <c r="O10" s="24"/>
       <c r="P10" s="25"/>
       <c r="Q10" s="16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="R10" s="17"/>
       <c r="S10" s="17" t="s">
@@ -1579,28 +1592,26 @@
       </c>
       <c r="U10" s="22">
         <f t="shared" si="0"/>
-        <v>1.4500000000000001E-2</v>
+        <v>1.5800000000000002E-2</v>
       </c>
       <c r="V10" s="17"/>
       <c r="W10" s="17" t="s">
         <v>61</v>
       </c>
       <c r="AF10" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AG10" s="3">
-        <v>8.7899999999999992E-3</v>
-      </c>
-      <c r="AI10" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="AJ10" s="13">
-        <v>12</v>
-      </c>
-      <c r="AK10" s="13">
-        <v>0.5</v>
-      </c>
-      <c r="AL10" s="2"/>
+        <v>9.6689999999999998E-2</v>
+      </c>
+      <c r="AI10" s="2"/>
+      <c r="AJ10" s="14"/>
+      <c r="AK10" s="14">
+        <v>365</v>
+      </c>
+      <c r="AL10" s="14">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="2:38" x14ac:dyDescent="0.3">
       <c r="B11" s="24" t="s">
@@ -1618,11 +1629,11 @@
       </c>
       <c r="G11" s="24"/>
       <c r="H11" s="31">
-        <v>0.22500000000000001</v>
+        <v>0.17499999999999999</v>
       </c>
       <c r="I11" s="33"/>
       <c r="J11" s="24" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="K11" s="24"/>
       <c r="L11" s="29"/>
@@ -1631,7 +1642,7 @@
       <c r="O11" s="24"/>
       <c r="P11" s="25"/>
       <c r="Q11" s="16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R11" s="17"/>
       <c r="S11" s="17" t="s">
@@ -1642,26 +1653,26 @@
       </c>
       <c r="U11" s="22">
         <f t="shared" si="0"/>
-        <v>1.2999999999999999E-3</v>
+        <v>1.4500000000000001E-2</v>
       </c>
       <c r="V11" s="17"/>
       <c r="W11" s="17" t="s">
         <v>61</v>
       </c>
       <c r="AF11" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AG11" s="3">
-        <v>0.16438</v>
+        <v>8.7899999999999992E-3</v>
       </c>
       <c r="AI11" s="13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AJ11" s="13">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AK11" s="13">
-        <v>0.45833333333333331</v>
+        <v>0.5</v>
       </c>
       <c r="AL11" s="2"/>
     </row>
@@ -1681,19 +1692,20 @@
       </c>
       <c r="G12" s="24"/>
       <c r="H12" s="31">
-        <v>0.17499999999999999</v>
+        <v>0.22500000000000001</v>
       </c>
       <c r="I12" s="33"/>
       <c r="J12" s="24" t="s">
-        <v>82</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="K12" s="24"/>
       <c r="L12" s="29"/>
       <c r="M12" s="24"/>
       <c r="N12" s="24"/>
       <c r="O12" s="24"/>
       <c r="P12" s="25"/>
       <c r="Q12" s="16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="R12" s="17"/>
       <c r="S12" s="17" t="s">
@@ -1704,36 +1716,58 @@
       </c>
       <c r="U12" s="22">
         <f t="shared" si="0"/>
-        <v>2.47E-2</v>
+        <v>1.2999999999999999E-3</v>
       </c>
       <c r="V12" s="17"/>
       <c r="W12" s="17" t="s">
         <v>61</v>
       </c>
       <c r="AF12" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AG12" s="3">
-        <v>0.15068000000000001</v>
+        <v>0.16438</v>
       </c>
       <c r="AI12" s="13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AJ12" s="13">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="AK12" s="13">
-        <v>4.1666666666666664E-2</v>
+        <v>0.45833333333333331</v>
       </c>
       <c r="AL12" s="2"/>
     </row>
     <row r="13" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B13" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="C13" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="D13" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="E13" s="24"/>
+      <c r="F13" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="G13" s="24"/>
+      <c r="H13" s="31">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="I13" s="33"/>
+      <c r="J13" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="L13" s="29"/>
       <c r="M13" s="24"/>
       <c r="N13" s="24"/>
       <c r="O13" s="24"/>
       <c r="P13" s="25"/>
       <c r="Q13" s="16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="R13" s="17"/>
       <c r="S13" s="17" t="s">
@@ -1744,24 +1778,26 @@
       </c>
       <c r="U13" s="22">
         <f t="shared" si="0"/>
-        <v>2.2599999999999999E-2</v>
+        <v>2.47E-2</v>
       </c>
       <c r="V13" s="17"/>
       <c r="W13" s="17" t="s">
         <v>61</v>
       </c>
       <c r="AF13" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AG13" s="3">
-        <v>1.37E-2</v>
-      </c>
-      <c r="AI13" s="2"/>
-      <c r="AJ13" s="15">
-        <v>24</v>
-      </c>
-      <c r="AK13" s="15">
-        <v>0.99999999999999989</v>
+        <v>0.15068000000000001</v>
+      </c>
+      <c r="AI13" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="AJ13" s="13">
+        <v>1</v>
+      </c>
+      <c r="AK13" s="13">
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="AL13" s="2"/>
     </row>
@@ -1771,7 +1807,7 @@
       <c r="O14" s="24"/>
       <c r="P14" s="25"/>
       <c r="Q14" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R14" s="17"/>
       <c r="S14" s="17" t="s">
@@ -1782,18 +1818,26 @@
       </c>
       <c r="U14" s="22">
         <f t="shared" si="0"/>
-        <v>2.0999999999999999E-3</v>
+        <v>2.2599999999999999E-2</v>
       </c>
       <c r="V14" s="17"/>
       <c r="W14" s="17" t="s">
         <v>61</v>
       </c>
       <c r="AF14" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AG14" s="3">
-        <v>0.10548</v>
-      </c>
+        <v>1.37E-2</v>
+      </c>
+      <c r="AI14" s="2"/>
+      <c r="AJ14" s="15">
+        <v>24</v>
+      </c>
+      <c r="AK14" s="15">
+        <v>0.99999999999999989</v>
+      </c>
+      <c r="AL14" s="2"/>
     </row>
     <row r="15" spans="2:38" x14ac:dyDescent="0.3">
       <c r="M15" s="24"/>
@@ -1801,7 +1845,7 @@
       <c r="O15" s="24"/>
       <c r="P15" s="25"/>
       <c r="Q15" s="16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R15" s="17"/>
       <c r="S15" s="17" t="s">
@@ -1812,17 +1856,17 @@
       </c>
       <c r="U15" s="22">
         <f t="shared" si="0"/>
-        <v>1.5800000000000002E-2</v>
+        <v>2.0999999999999999E-3</v>
       </c>
       <c r="V15" s="17"/>
       <c r="W15" s="17" t="s">
         <v>61</v>
       </c>
       <c r="AF15" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AG15" s="3">
-        <v>9.6689999999999998E-2</v>
+        <v>0.10548</v>
       </c>
     </row>
     <row r="16" spans="2:38" x14ac:dyDescent="0.3">
@@ -1831,7 +1875,7 @@
       <c r="O16" s="24"/>
       <c r="P16" s="25"/>
       <c r="Q16" s="16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R16" s="17"/>
       <c r="S16" s="17" t="s">
@@ -1842,17 +1886,17 @@
       </c>
       <c r="U16" s="22">
         <f t="shared" si="0"/>
-        <v>1.4500000000000001E-2</v>
+        <v>1.5800000000000002E-2</v>
       </c>
       <c r="V16" s="17"/>
       <c r="W16" s="17" t="s">
         <v>61</v>
       </c>
       <c r="AF16" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AG16" s="3">
-        <v>8.7899999999999992E-3</v>
+        <v>9.6689999999999998E-2</v>
       </c>
     </row>
     <row r="17" spans="13:36" x14ac:dyDescent="0.3">
@@ -1861,7 +1905,7 @@
       <c r="O17" s="24"/>
       <c r="P17" s="25"/>
       <c r="Q17" s="16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="R17" s="17"/>
       <c r="S17" s="17" t="s">
@@ -1872,11 +1916,17 @@
       </c>
       <c r="U17" s="22">
         <f t="shared" si="0"/>
-        <v>1.2999999999999999E-3</v>
+        <v>1.4500000000000001E-2</v>
       </c>
       <c r="V17" s="17"/>
       <c r="W17" s="17" t="s">
         <v>61</v>
+      </c>
+      <c r="AF17" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AG17" s="3">
+        <v>8.7899999999999992E-3</v>
       </c>
     </row>
     <row r="18" spans="13:36" x14ac:dyDescent="0.3">
@@ -1884,23 +1934,23 @@
       <c r="N18" s="24"/>
       <c r="O18" s="24"/>
       <c r="P18" s="25"/>
-      <c r="Q18" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="R18" s="20"/>
-      <c r="S18" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="T18" s="8">
-        <v>2019</v>
-      </c>
-      <c r="U18" s="23">
-        <f>ROUND($AG$28*VLOOKUP(LEFT(Q18,2),$AI$5:$AK$8,3,FALSE)*VLOOKUP(RIGHT(Q18,1),$AI$10:$AJ$12,2,FALSE)/8760,4)</f>
-        <v>1.8700000000000001E-2</v>
-      </c>
-      <c r="V18" s="20"/>
-      <c r="W18" s="20" t="s">
-        <v>62</v>
+      <c r="Q18" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="R18" s="17"/>
+      <c r="S18" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="T18" s="18">
+        <v>2019</v>
+      </c>
+      <c r="U18" s="22">
+        <f t="shared" si="0"/>
+        <v>1.2999999999999999E-3</v>
+      </c>
+      <c r="V18" s="17"/>
+      <c r="W18" s="17" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="19" spans="13:36" x14ac:dyDescent="0.3">
@@ -1909,7 +1959,7 @@
       <c r="O19" s="24"/>
       <c r="P19" s="25"/>
       <c r="Q19" s="19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="R19" s="20"/>
       <c r="S19" s="20" t="s">
@@ -1919,22 +1969,13 @@
         <v>2019</v>
       </c>
       <c r="U19" s="23">
-        <f t="shared" ref="U19:U29" si="1">ROUND($AG$28*VLOOKUP(LEFT(Q19,2),$AI$5:$AK$8,3,FALSE)*VLOOKUP(RIGHT(Q19,1),$AI$10:$AJ$12,2,FALSE)/8760,4)</f>
-        <v>1.7100000000000001E-2</v>
+        <f>ROUND($AG$29*VLOOKUP(LEFT(Q19,2),$AI$5:$AK$9,3,FALSE)*VLOOKUP(RIGHT(Q19,1),$AI$11:$AJ$13,2,FALSE)/8760,4)</f>
+        <v>1.8700000000000001E-2</v>
       </c>
       <c r="V19" s="20"/>
       <c r="W19" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="AF19" s="6"/>
-      <c r="AG19" s="46" t="s">
-        <v>26</v>
-      </c>
-      <c r="AH19" s="46"/>
-      <c r="AI19" s="46" t="s">
-        <v>27</v>
-      </c>
-      <c r="AJ19" s="46"/>
     </row>
     <row r="20" spans="13:36" x14ac:dyDescent="0.3">
       <c r="M20" s="24"/>
@@ -1942,7 +1983,7 @@
       <c r="O20" s="24"/>
       <c r="P20" s="25"/>
       <c r="Q20" s="19" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="R20" s="20"/>
       <c r="S20" s="20" t="s">
@@ -1952,26 +1993,22 @@
         <v>2019</v>
       </c>
       <c r="U20" s="23">
-        <f t="shared" si="1"/>
-        <v>1.6000000000000001E-3</v>
+        <f t="shared" ref="U20:U30" si="1">ROUND($AG$29*VLOOKUP(LEFT(Q20,2),$AI$5:$AK$9,3,FALSE)*VLOOKUP(RIGHT(Q20,1),$AI$11:$AJ$13,2,FALSE)/8760,4)</f>
+        <v>1.7100000000000001E-2</v>
       </c>
       <c r="V20" s="20"/>
       <c r="W20" s="20" t="s">
         <v>62</v>
       </c>
       <c r="AF20" s="6"/>
-      <c r="AG20" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="AH20" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="AI20" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="AJ20" t="s">
-        <v>29</v>
-      </c>
+      <c r="AG20" s="48" t="s">
+        <v>26</v>
+      </c>
+      <c r="AH20" s="48"/>
+      <c r="AI20" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="AJ20" s="48"/>
     </row>
     <row r="21" spans="13:36" x14ac:dyDescent="0.3">
       <c r="M21" s="24"/>
@@ -1979,7 +2016,7 @@
       <c r="O21" s="24"/>
       <c r="P21" s="25"/>
       <c r="Q21" s="19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="R21" s="20"/>
       <c r="S21" s="20" t="s">
@@ -1990,26 +2027,24 @@
       </c>
       <c r="U21" s="23">
         <f t="shared" si="1"/>
-        <v>1.5800000000000002E-2</v>
+        <v>1.6000000000000001E-3</v>
       </c>
       <c r="V21" s="20"/>
       <c r="W21" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="AF21" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="AG21" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="AH21" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="AI21" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="AJ21" s="7" t="s">
-        <v>32</v>
+      <c r="AF21" s="6"/>
+      <c r="AG21" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="AH21" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="AI21" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="AJ21" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="22" spans="13:36" x14ac:dyDescent="0.3">
@@ -2018,7 +2053,7 @@
       <c r="O22" s="24"/>
       <c r="P22" s="25"/>
       <c r="Q22" s="19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="R22" s="20"/>
       <c r="S22" s="20" t="s">
@@ -2029,29 +2064,26 @@
       </c>
       <c r="U22" s="23">
         <f t="shared" si="1"/>
-        <v>1.4500000000000001E-2</v>
+        <v>1.5800000000000002E-2</v>
       </c>
       <c r="V22" s="20"/>
       <c r="W22" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="AE22" t="s">
-        <v>52</v>
-      </c>
-      <c r="AF22" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="AG22" s="9">
-        <v>0.15</v>
-      </c>
-      <c r="AH22" s="9">
-        <v>0.15</v>
-      </c>
-      <c r="AI22" s="9">
-        <v>0.2</v>
-      </c>
-      <c r="AJ22" s="9">
-        <v>0.05</v>
+      <c r="AF22" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG22" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH22" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI22" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="AJ22" s="7" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="23" spans="13:36" x14ac:dyDescent="0.3">
@@ -2060,7 +2092,7 @@
       <c r="O23" s="24"/>
       <c r="P23" s="25"/>
       <c r="Q23" s="19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R23" s="20"/>
       <c r="S23" s="20" t="s">
@@ -2071,17 +2103,17 @@
       </c>
       <c r="U23" s="23">
         <f t="shared" si="1"/>
-        <v>1.2999999999999999E-3</v>
+        <v>1.4500000000000001E-2</v>
       </c>
       <c r="V23" s="20"/>
       <c r="W23" s="20" t="s">
         <v>62</v>
       </c>
       <c r="AE23" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AF23" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AG23" s="9">
         <v>0.15</v>
@@ -2102,7 +2134,7 @@
       <c r="O24" s="24"/>
       <c r="P24" s="25"/>
       <c r="Q24" s="19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="R24" s="20"/>
       <c r="S24" s="20" t="s">
@@ -2113,23 +2145,23 @@
       </c>
       <c r="U24" s="23">
         <f t="shared" si="1"/>
-        <v>2.47E-2</v>
+        <v>1.2999999999999999E-3</v>
       </c>
       <c r="V24" s="20"/>
       <c r="W24" s="20" t="s">
         <v>62</v>
       </c>
       <c r="AE24" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AF24" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AG24" s="9">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="AH24" s="9">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="AI24" s="9">
         <v>0.2</v>
@@ -2144,7 +2176,7 @@
       <c r="O25" s="24"/>
       <c r="P25" s="25"/>
       <c r="Q25" s="19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="R25" s="20"/>
       <c r="S25" s="20" t="s">
@@ -2155,20 +2187,20 @@
       </c>
       <c r="U25" s="23">
         <f t="shared" si="1"/>
-        <v>2.2599999999999999E-2</v>
+        <v>2.47E-2</v>
       </c>
       <c r="V25" s="20"/>
       <c r="W25" s="20" t="s">
         <v>62</v>
       </c>
       <c r="AE25" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AF25" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AG25" s="9">
-        <v>0.15</v>
+        <v>0.25</v>
       </c>
       <c r="AH25" s="9">
         <v>0.25</v>
@@ -2186,7 +2218,7 @@
       <c r="O26" s="24"/>
       <c r="P26" s="25"/>
       <c r="Q26" s="19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R26" s="20"/>
       <c r="S26" s="20" t="s">
@@ -2197,20 +2229,20 @@
       </c>
       <c r="U26" s="23">
         <f t="shared" si="1"/>
-        <v>2.0999999999999999E-3</v>
+        <v>2.2599999999999999E-2</v>
       </c>
       <c r="V26" s="20"/>
       <c r="W26" s="20" t="s">
         <v>62</v>
       </c>
       <c r="AE26" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AF26" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AG26" s="9">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="AH26" s="9">
         <v>0.25</v>
@@ -2228,7 +2260,7 @@
       <c r="O27" s="24"/>
       <c r="P27" s="25"/>
       <c r="Q27" s="19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R27" s="20"/>
       <c r="S27" s="20" t="s">
@@ -2239,23 +2271,23 @@
       </c>
       <c r="U27" s="23">
         <f t="shared" si="1"/>
-        <v>1.5800000000000002E-2</v>
+        <v>2.0999999999999999E-3</v>
       </c>
       <c r="V27" s="20"/>
       <c r="W27" s="20" t="s">
         <v>62</v>
       </c>
       <c r="AE27" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AF27" s="8" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="AG27" s="9">
-        <v>0.15</v>
+        <v>0.25</v>
       </c>
       <c r="AH27" s="9">
-        <v>0.15</v>
+        <v>0.25</v>
       </c>
       <c r="AI27" s="9">
         <v>0.2</v>
@@ -2270,7 +2302,7 @@
       <c r="O28" s="24"/>
       <c r="P28" s="25"/>
       <c r="Q28" s="19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R28" s="20"/>
       <c r="S28" s="20" t="s">
@@ -2281,17 +2313,17 @@
       </c>
       <c r="U28" s="23">
         <f t="shared" si="1"/>
-        <v>1.4500000000000001E-2</v>
+        <v>1.5800000000000002E-2</v>
       </c>
       <c r="V28" s="20"/>
       <c r="W28" s="20" t="s">
         <v>62</v>
       </c>
       <c r="AE28" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AF28" s="8" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="AG28" s="9">
         <v>0.15</v>
@@ -2312,7 +2344,7 @@
       <c r="O29" s="24"/>
       <c r="P29" s="25"/>
       <c r="Q29" s="19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="R29" s="20"/>
       <c r="S29" s="20" t="s">
@@ -2323,20 +2355,20 @@
       </c>
       <c r="U29" s="23">
         <f t="shared" si="1"/>
-        <v>1.2999999999999999E-3</v>
+        <v>1.4500000000000001E-2</v>
       </c>
       <c r="V29" s="20"/>
       <c r="W29" s="20" t="s">
         <v>62</v>
       </c>
       <c r="AE29" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AF29" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AG29" s="9">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="AH29" s="9">
         <v>0.15</v>
@@ -2353,35 +2385,39 @@
       <c r="N30" s="24"/>
       <c r="O30" s="24"/>
       <c r="P30" s="25"/>
-      <c r="Q30" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="R30" s="17"/>
-      <c r="S30" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="T30" s="18">
-        <v>2019</v>
-      </c>
-      <c r="U30" s="22">
-        <f>ROUND($AI$22*VLOOKUP(LEFT(Q30,2),$AI$5:$AK$8,3,FALSE)*VLOOKUP(RIGHT(Q30,1),$AI$10:$AJ$12,2,FALSE)/8760,4)</f>
-        <v>2.4899999999999999E-2</v>
-      </c>
-      <c r="V30" s="17"/>
-      <c r="W30" s="17" t="s">
-        <v>63</v>
+      <c r="Q30" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="R30" s="20"/>
+      <c r="S30" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="T30" s="8">
+        <v>2019</v>
+      </c>
+      <c r="U30" s="23">
+        <f t="shared" si="1"/>
+        <v>1.2999999999999999E-3</v>
+      </c>
+      <c r="V30" s="20"/>
+      <c r="W30" s="20" t="s">
+        <v>62</v>
       </c>
       <c r="AE30" t="s">
-        <v>60</v>
-      </c>
-      <c r="AF30" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="AG30" s="9"/>
+        <v>59</v>
+      </c>
+      <c r="AF30" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="AG30" s="9">
+        <v>0.25</v>
+      </c>
       <c r="AH30" s="9">
-        <v>0.25</v>
-      </c>
-      <c r="AI30" s="10"/>
+        <v>0.15</v>
+      </c>
+      <c r="AI30" s="9">
+        <v>0.2</v>
+      </c>
       <c r="AJ30" s="9">
         <v>0.05</v>
       </c>
@@ -2392,7 +2428,7 @@
       <c r="O31" s="24"/>
       <c r="P31" s="25"/>
       <c r="Q31" s="16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="R31" s="17"/>
       <c r="S31" s="17" t="s">
@@ -2402,12 +2438,26 @@
         <v>2019</v>
       </c>
       <c r="U31" s="22">
-        <f t="shared" ref="U31:U41" si="2">ROUND($AI$22*VLOOKUP(LEFT(Q31,2),$AI$5:$AK$8,3,FALSE)*VLOOKUP(RIGHT(Q31,1),$AI$10:$AJ$12,2,FALSE)/8760,4)</f>
-        <v>2.29E-2</v>
+        <f>ROUND($AI$23*VLOOKUP(LEFT(Q31,2),$AI$5:$AK$9,3,FALSE)*VLOOKUP(RIGHT(Q31,1),$AI$11:$AJ$13,2,FALSE)/8760,4)</f>
+        <v>2.4899999999999999E-2</v>
       </c>
       <c r="V31" s="17"/>
       <c r="W31" s="17" t="s">
         <v>63</v>
+      </c>
+      <c r="AE31" t="s">
+        <v>60</v>
+      </c>
+      <c r="AF31" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG31" s="9"/>
+      <c r="AH31" s="9">
+        <v>0.25</v>
+      </c>
+      <c r="AI31" s="10"/>
+      <c r="AJ31" s="9">
+        <v>0.05</v>
       </c>
     </row>
     <row r="32" spans="13:36" x14ac:dyDescent="0.3">
@@ -2416,7 +2466,7 @@
       <c r="O32" s="24"/>
       <c r="P32" s="25"/>
       <c r="Q32" s="16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="R32" s="17"/>
       <c r="S32" s="17" t="s">
@@ -2426,8 +2476,8 @@
         <v>2019</v>
       </c>
       <c r="U32" s="22">
-        <f t="shared" si="2"/>
-        <v>2.0999999999999999E-3</v>
+        <f t="shared" ref="U32:U42" si="2">ROUND($AI$23*VLOOKUP(LEFT(Q32,2),$AI$5:$AK$9,3,FALSE)*VLOOKUP(RIGHT(Q32,1),$AI$11:$AJ$13,2,FALSE)/8760,4)</f>
+        <v>2.29E-2</v>
       </c>
       <c r="V32" s="17"/>
       <c r="W32" s="17" t="s">
@@ -2440,7 +2490,7 @@
       <c r="O33" s="24"/>
       <c r="P33" s="25"/>
       <c r="Q33" s="16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="R33" s="17"/>
       <c r="S33" s="17" t="s">
@@ -2451,7 +2501,7 @@
       </c>
       <c r="U33" s="22">
         <f t="shared" si="2"/>
-        <v>2.1100000000000001E-2</v>
+        <v>2.0999999999999999E-3</v>
       </c>
       <c r="V33" s="17"/>
       <c r="W33" s="17" t="s">
@@ -2464,7 +2514,7 @@
       <c r="O34" s="24"/>
       <c r="P34" s="25"/>
       <c r="Q34" s="16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="R34" s="17"/>
       <c r="S34" s="17" t="s">
@@ -2475,7 +2525,7 @@
       </c>
       <c r="U34" s="22">
         <f t="shared" si="2"/>
-        <v>1.9300000000000001E-2</v>
+        <v>2.1100000000000001E-2</v>
       </c>
       <c r="V34" s="17"/>
       <c r="W34" s="17" t="s">
@@ -2488,7 +2538,7 @@
       <c r="O35" s="24"/>
       <c r="P35" s="25"/>
       <c r="Q35" s="16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R35" s="17"/>
       <c r="S35" s="17" t="s">
@@ -2499,7 +2549,7 @@
       </c>
       <c r="U35" s="22">
         <f t="shared" si="2"/>
-        <v>1.8E-3</v>
+        <v>1.9300000000000001E-2</v>
       </c>
       <c r="V35" s="17"/>
       <c r="W35" s="17" t="s">
@@ -2512,7 +2562,7 @@
       <c r="O36" s="24"/>
       <c r="P36" s="25"/>
       <c r="Q36" s="16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="R36" s="17"/>
       <c r="S36" s="17" t="s">
@@ -2523,7 +2573,7 @@
       </c>
       <c r="U36" s="22">
         <f t="shared" si="2"/>
-        <v>3.2899999999999999E-2</v>
+        <v>1.8E-3</v>
       </c>
       <c r="V36" s="17"/>
       <c r="W36" s="17" t="s">
@@ -2536,7 +2586,7 @@
       <c r="O37" s="24"/>
       <c r="P37" s="25"/>
       <c r="Q37" s="16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="R37" s="17"/>
       <c r="S37" s="17" t="s">
@@ -2547,7 +2597,7 @@
       </c>
       <c r="U37" s="22">
         <f t="shared" si="2"/>
-        <v>3.0099999999999998E-2</v>
+        <v>3.2899999999999999E-2</v>
       </c>
       <c r="V37" s="17"/>
       <c r="W37" s="17" t="s">
@@ -2560,7 +2610,7 @@
       <c r="O38" s="24"/>
       <c r="P38" s="25"/>
       <c r="Q38" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R38" s="17"/>
       <c r="S38" s="17" t="s">
@@ -2571,7 +2621,7 @@
       </c>
       <c r="U38" s="22">
         <f t="shared" si="2"/>
-        <v>2.7000000000000001E-3</v>
+        <v>3.0099999999999998E-2</v>
       </c>
       <c r="V38" s="17"/>
       <c r="W38" s="17" t="s">
@@ -2584,7 +2634,7 @@
       <c r="O39" s="24"/>
       <c r="P39" s="25"/>
       <c r="Q39" s="16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R39" s="17"/>
       <c r="S39" s="17" t="s">
@@ -2595,7 +2645,7 @@
       </c>
       <c r="U39" s="22">
         <f t="shared" si="2"/>
-        <v>2.1100000000000001E-2</v>
+        <v>2.7000000000000001E-3</v>
       </c>
       <c r="V39" s="17"/>
       <c r="W39" s="17" t="s">
@@ -2608,7 +2658,7 @@
       <c r="O40" s="24"/>
       <c r="P40" s="25"/>
       <c r="Q40" s="16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R40" s="17"/>
       <c r="S40" s="17" t="s">
@@ -2619,7 +2669,7 @@
       </c>
       <c r="U40" s="22">
         <f t="shared" si="2"/>
-        <v>1.9300000000000001E-2</v>
+        <v>2.1100000000000001E-2</v>
       </c>
       <c r="V40" s="17"/>
       <c r="W40" s="17" t="s">
@@ -2632,7 +2682,7 @@
       <c r="O41" s="24"/>
       <c r="P41" s="25"/>
       <c r="Q41" s="16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="R41" s="17"/>
       <c r="S41" s="17" t="s">
@@ -2643,7 +2693,7 @@
       </c>
       <c r="U41" s="22">
         <f t="shared" si="2"/>
-        <v>1.8E-3</v>
+        <v>1.9300000000000001E-2</v>
       </c>
       <c r="V41" s="17"/>
       <c r="W41" s="17" t="s">
@@ -2655,23 +2705,23 @@
       <c r="N42" s="24"/>
       <c r="O42" s="24"/>
       <c r="P42" s="25"/>
-      <c r="Q42" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="R42" s="20"/>
-      <c r="S42" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="T42" s="8">
-        <v>2019</v>
-      </c>
-      <c r="U42" s="23">
-        <f>ROUND($AI$28*VLOOKUP(LEFT(Q42,2),$AI$5:$AK$8,3,FALSE)*VLOOKUP(RIGHT(Q42,1),$AI$10:$AJ$12,2,FALSE)/8760,4)</f>
-        <v>2.4899999999999999E-2</v>
-      </c>
-      <c r="V42" s="20"/>
-      <c r="W42" s="20" t="s">
-        <v>64</v>
+      <c r="Q42" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="R42" s="17"/>
+      <c r="S42" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="T42" s="18">
+        <v>2019</v>
+      </c>
+      <c r="U42" s="22">
+        <f t="shared" si="2"/>
+        <v>1.8E-3</v>
+      </c>
+      <c r="V42" s="17"/>
+      <c r="W42" s="17" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="43" spans="13:23" x14ac:dyDescent="0.3">
@@ -2680,7 +2730,7 @@
       <c r="O43" s="24"/>
       <c r="P43" s="25"/>
       <c r="Q43" s="19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="R43" s="20"/>
       <c r="S43" s="20" t="s">
@@ -2690,8 +2740,8 @@
         <v>2019</v>
       </c>
       <c r="U43" s="23">
-        <f t="shared" ref="U43:U53" si="3">ROUND($AI$28*VLOOKUP(LEFT(Q43,2),$AI$5:$AK$8,3,FALSE)*VLOOKUP(RIGHT(Q43,1),$AI$10:$AJ$12,2,FALSE)/8760,4)</f>
-        <v>2.29E-2</v>
+        <f>ROUND($AI$29*VLOOKUP(LEFT(Q43,2),$AI$5:$AK$9,3,FALSE)*VLOOKUP(RIGHT(Q43,1),$AI$11:$AJ$13,2,FALSE)/8760,4)</f>
+        <v>2.4899999999999999E-2</v>
       </c>
       <c r="V43" s="20"/>
       <c r="W43" s="20" t="s">
@@ -2704,7 +2754,7 @@
       <c r="O44" s="24"/>
       <c r="P44" s="25"/>
       <c r="Q44" s="19" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="R44" s="20"/>
       <c r="S44" s="20" t="s">
@@ -2714,8 +2764,8 @@
         <v>2019</v>
       </c>
       <c r="U44" s="23">
-        <f t="shared" si="3"/>
-        <v>2.0999999999999999E-3</v>
+        <f t="shared" ref="U44:U54" si="3">ROUND($AI$29*VLOOKUP(LEFT(Q44,2),$AI$5:$AK$9,3,FALSE)*VLOOKUP(RIGHT(Q44,1),$AI$11:$AJ$13,2,FALSE)/8760,4)</f>
+        <v>2.29E-2</v>
       </c>
       <c r="V44" s="20"/>
       <c r="W44" s="20" t="s">
@@ -2723,11 +2773,12 @@
       </c>
     </row>
     <row r="45" spans="13:23" x14ac:dyDescent="0.3">
+      <c r="M45" s="24"/>
       <c r="N45" s="24"/>
       <c r="O45" s="24"/>
       <c r="P45" s="25"/>
       <c r="Q45" s="19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="R45" s="20"/>
       <c r="S45" s="20" t="s">
@@ -2738,7 +2789,7 @@
       </c>
       <c r="U45" s="23">
         <f t="shared" si="3"/>
-        <v>2.1100000000000001E-2</v>
+        <v>2.0999999999999999E-3</v>
       </c>
       <c r="V45" s="20"/>
       <c r="W45" s="20" t="s">
@@ -2746,8 +2797,11 @@
       </c>
     </row>
     <row r="46" spans="13:23" x14ac:dyDescent="0.3">
+      <c r="N46" s="24"/>
+      <c r="O46" s="24"/>
+      <c r="P46" s="25"/>
       <c r="Q46" s="19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="R46" s="20"/>
       <c r="S46" s="20" t="s">
@@ -2758,7 +2812,7 @@
       </c>
       <c r="U46" s="23">
         <f t="shared" si="3"/>
-        <v>1.9300000000000001E-2</v>
+        <v>2.1100000000000001E-2</v>
       </c>
       <c r="V46" s="20"/>
       <c r="W46" s="20" t="s">
@@ -2767,7 +2821,7 @@
     </row>
     <row r="47" spans="13:23" x14ac:dyDescent="0.3">
       <c r="Q47" s="19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R47" s="20"/>
       <c r="S47" s="20" t="s">
@@ -2778,7 +2832,7 @@
       </c>
       <c r="U47" s="23">
         <f t="shared" si="3"/>
-        <v>1.8E-3</v>
+        <v>1.9300000000000001E-2</v>
       </c>
       <c r="V47" s="20"/>
       <c r="W47" s="20" t="s">
@@ -2787,7 +2841,7 @@
     </row>
     <row r="48" spans="13:23" x14ac:dyDescent="0.3">
       <c r="Q48" s="19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="R48" s="20"/>
       <c r="S48" s="20" t="s">
@@ -2798,7 +2852,7 @@
       </c>
       <c r="U48" s="23">
         <f t="shared" si="3"/>
-        <v>3.2899999999999999E-2</v>
+        <v>1.8E-3</v>
       </c>
       <c r="V48" s="20"/>
       <c r="W48" s="20" t="s">
@@ -2807,7 +2861,7 @@
     </row>
     <row r="49" spans="17:23" x14ac:dyDescent="0.3">
       <c r="Q49" s="19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="R49" s="20"/>
       <c r="S49" s="20" t="s">
@@ -2818,7 +2872,7 @@
       </c>
       <c r="U49" s="23">
         <f t="shared" si="3"/>
-        <v>3.0099999999999998E-2</v>
+        <v>3.2899999999999999E-2</v>
       </c>
       <c r="V49" s="20"/>
       <c r="W49" s="20" t="s">
@@ -2827,7 +2881,7 @@
     </row>
     <row r="50" spans="17:23" x14ac:dyDescent="0.3">
       <c r="Q50" s="19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R50" s="20"/>
       <c r="S50" s="20" t="s">
@@ -2838,7 +2892,7 @@
       </c>
       <c r="U50" s="23">
         <f t="shared" si="3"/>
-        <v>2.7000000000000001E-3</v>
+        <v>3.0099999999999998E-2</v>
       </c>
       <c r="V50" s="20"/>
       <c r="W50" s="20" t="s">
@@ -2847,7 +2901,7 @@
     </row>
     <row r="51" spans="17:23" x14ac:dyDescent="0.3">
       <c r="Q51" s="19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R51" s="20"/>
       <c r="S51" s="20" t="s">
@@ -2858,7 +2912,7 @@
       </c>
       <c r="U51" s="23">
         <f t="shared" si="3"/>
-        <v>2.1100000000000001E-2</v>
+        <v>2.7000000000000001E-3</v>
       </c>
       <c r="V51" s="20"/>
       <c r="W51" s="20" t="s">
@@ -2867,7 +2921,7 @@
     </row>
     <row r="52" spans="17:23" x14ac:dyDescent="0.3">
       <c r="Q52" s="19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R52" s="20"/>
       <c r="S52" s="20" t="s">
@@ -2878,7 +2932,7 @@
       </c>
       <c r="U52" s="23">
         <f t="shared" si="3"/>
-        <v>1.9300000000000001E-2</v>
+        <v>2.1100000000000001E-2</v>
       </c>
       <c r="V52" s="20"/>
       <c r="W52" s="20" t="s">
@@ -2887,7 +2941,7 @@
     </row>
     <row r="53" spans="17:23" x14ac:dyDescent="0.3">
       <c r="Q53" s="19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="R53" s="20"/>
       <c r="S53" s="20" t="s">
@@ -2898,7 +2952,7 @@
       </c>
       <c r="U53" s="23">
         <f t="shared" si="3"/>
-        <v>1.8E-3</v>
+        <v>1.9300000000000001E-2</v>
       </c>
       <c r="V53" s="20"/>
       <c r="W53" s="20" t="s">
@@ -2906,7 +2960,24 @@
       </c>
     </row>
     <row r="54" spans="17:23" x14ac:dyDescent="0.3">
-      <c r="Q54" s="2"/>
+      <c r="Q54" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="R54" s="20"/>
+      <c r="S54" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="T54" s="8">
+        <v>2019</v>
+      </c>
+      <c r="U54" s="23">
+        <f t="shared" si="3"/>
+        <v>1.8E-3</v>
+      </c>
+      <c r="V54" s="20"/>
+      <c r="W54" s="20" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="55" spans="17:23" x14ac:dyDescent="0.3">
       <c r="Q55" s="2"/>
@@ -2977,10 +3048,13 @@
     <row r="77" spans="17:17" x14ac:dyDescent="0.3">
       <c r="Q77" s="2"/>
     </row>
+    <row r="78" spans="17:17" x14ac:dyDescent="0.3">
+      <c r="Q78" s="2"/>
+    </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="AG19:AH19"/>
-    <mergeCell ref="AI19:AJ19"/>
+    <mergeCell ref="AG20:AH20"/>
+    <mergeCell ref="AI20:AJ20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
